--- a/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.81258921785158</v>
+        <v>25.8125892178516</v>
       </c>
       <c r="C2">
-        <v>12.34339780603422</v>
+        <v>12.34339780603419</v>
       </c>
       <c r="D2">
-        <v>3.288271445645861</v>
+        <v>3.288271445645694</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.63848615941484</v>
+        <v>35.63848615941477</v>
       </c>
       <c r="G2">
-        <v>27.66593497339556</v>
+        <v>27.66593497339548</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.27886329305284</v>
+        <v>30.27886329305289</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.95926489363237</v>
+        <v>23.95926489363228</v>
       </c>
       <c r="C3">
-        <v>11.6254999018795</v>
+        <v>11.62549990187934</v>
       </c>
       <c r="D3">
-        <v>3.355849722524088</v>
+        <v>3.355849722524241</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.53531761114993</v>
+        <v>33.5353176111499</v>
       </c>
       <c r="G3">
-        <v>26.16740952130909</v>
+        <v>26.1674095213091</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.94168049700438</v>
+        <v>27.94168049700432</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76713201289309</v>
+        <v>22.76713201289304</v>
       </c>
       <c r="C4">
-        <v>11.16341046602795</v>
+        <v>11.16341046602822</v>
       </c>
       <c r="D4">
-        <v>3.400787154287855</v>
+        <v>3.400787154287694</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.23251843755703</v>
+        <v>32.23251843755698</v>
       </c>
       <c r="G4">
-        <v>25.24799587353464</v>
+        <v>25.24799587353458</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.45647983347336</v>
+        <v>26.45647983347333</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.26734009732618</v>
+        <v>22.26734009732616</v>
       </c>
       <c r="C5">
-        <v>10.96974639656614</v>
+        <v>10.96974639656622</v>
       </c>
       <c r="D5">
-        <v>3.41986020089496</v>
+        <v>3.4198602008948</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.69891325938195</v>
+        <v>31.69891325938207</v>
       </c>
       <c r="G5">
-        <v>24.8736161476404</v>
+        <v>24.87361614764046</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.83779057394096</v>
+        <v>25.83779057394094</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.1834952162251</v>
+        <v>22.18349521622521</v>
       </c>
       <c r="C6">
-        <v>10.93726524586858</v>
+        <v>10.93726524586842</v>
       </c>
       <c r="D6">
-        <v>3.423070500666726</v>
+        <v>3.423070500666608</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>31.61015351313651</v>
       </c>
       <c r="G6">
-        <v>24.81147361541021</v>
+        <v>24.81147361541018</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.7342221319565</v>
+        <v>25.73422213195652</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76044873701814</v>
+        <v>22.76044873701815</v>
       </c>
       <c r="C7">
-        <v>11.16082033291931</v>
+        <v>11.16082033291927</v>
       </c>
       <c r="D7">
-        <v>3.401041424971845</v>
+        <v>3.40104142497185</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.22533264797136</v>
+        <v>32.22533264797133</v>
       </c>
       <c r="G7">
-        <v>25.24294545478548</v>
+        <v>25.24294545478545</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.44819150566021</v>
+        <v>26.44819150566023</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.18457885111329</v>
+        <v>25.18457885111344</v>
       </c>
       <c r="C8">
-        <v>12.10027863346337</v>
+        <v>12.10027863346343</v>
       </c>
       <c r="D8">
-        <v>3.310787569809922</v>
+        <v>3.310787569809655</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.91573997716194</v>
+        <v>34.91573997716197</v>
       </c>
       <c r="G8">
-        <v>27.14913432103624</v>
+        <v>27.14913432103623</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.48287010083725</v>
+        <v>29.4828701008372</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.52695478172059</v>
+        <v>29.52695478172067</v>
       </c>
       <c r="C9">
-        <v>13.77475765551286</v>
+        <v>13.77475765551289</v>
       </c>
       <c r="D9">
-        <v>3.16716799707202</v>
+        <v>3.167167997072026</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.10286541716632</v>
+        <v>40.10286541716641</v>
       </c>
       <c r="G9">
-        <v>30.89429649367518</v>
+        <v>30.89429649367523</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.4968755209129</v>
+        <v>32.49687552091272</v>
       </c>
       <c r="C10">
-        <v>14.90570938304365</v>
+        <v>14.90570938304385</v>
       </c>
       <c r="D10">
-        <v>3.092971752396599</v>
+        <v>3.092971752396566</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.03514950412518</v>
+        <v>44.03514950412498</v>
       </c>
       <c r="G10">
-        <v>33.80176042420946</v>
+        <v>33.80176042420931</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.05541822019164</v>
+        <v>39.05541822019153</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.80856044140466</v>
+        <v>33.80856044140464</v>
       </c>
       <c r="C11">
-        <v>15.39966070388126</v>
+        <v>15.39966070388127</v>
       </c>
       <c r="D11">
-        <v>3.069424779032091</v>
+        <v>3.06942477903217</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.8755291423055</v>
+        <v>45.87552914230567</v>
       </c>
       <c r="G11">
-        <v>35.24336091828355</v>
+        <v>35.2433609182837</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.85641099958055</v>
+        <v>40.85641099958045</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>15.58386163359554</v>
       </c>
       <c r="D12">
-        <v>3.062354413792444</v>
+        <v>3.062354413792423</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.57185871139813</v>
+        <v>46.57185871139822</v>
       </c>
       <c r="G12">
-        <v>35.7889998238748</v>
+        <v>35.78899982387488</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.53992102098722</v>
+        <v>41.53992102098729</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.1947408813827</v>
+        <v>34.19474088138274</v>
       </c>
       <c r="C13">
-        <v>15.54431547768839</v>
+        <v>15.54431547768853</v>
       </c>
       <c r="D13">
-        <v>3.063787994987281</v>
+        <v>3.063787994987284</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.42189201665833</v>
+        <v>46.42189201665838</v>
       </c>
       <c r="G13">
-        <v>35.67147726097377</v>
+        <v>35.67147726097382</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.39259992271369</v>
+        <v>41.39259992271371</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.8491218059783</v>
+        <v>33.84912180597836</v>
       </c>
       <c r="C14">
-        <v>15.41487143983475</v>
+        <v>15.4148714398348</v>
       </c>
       <c r="D14">
-        <v>3.068803592039886</v>
+        <v>3.068803592039921</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.93281919942449</v>
+        <v>45.93281919942471</v>
       </c>
       <c r="G14">
-        <v>35.28824872773834</v>
+        <v>35.28824872773853</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.91259653118655</v>
+        <v>40.91259653118656</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.63682758410174</v>
+        <v>33.63682758410178</v>
       </c>
       <c r="C15">
-        <v>15.33521575628939</v>
+        <v>15.33521575628929</v>
       </c>
       <c r="D15">
-        <v>3.072129050794312</v>
+        <v>3.072129050794357</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.63321848832378</v>
+        <v>45.63321848832377</v>
       </c>
       <c r="G15">
-        <v>35.0535142730552</v>
+        <v>35.05351427305521</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.61886421615249</v>
+        <v>40.61886421615253</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.41043318276988</v>
+        <v>32.41043318276971</v>
       </c>
       <c r="C16">
-        <v>14.87302395207974</v>
+        <v>14.87302395207965</v>
       </c>
       <c r="D16">
-        <v>3.094746320466115</v>
+        <v>3.094746320466163</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.91471357271044</v>
+        <v>43.91471357271028</v>
       </c>
       <c r="G16">
-        <v>33.7074439551021</v>
+        <v>33.70744395510197</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.93777848228046</v>
+        <v>38.93777848228036</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.64857271810846</v>
+        <v>31.64857271810852</v>
       </c>
       <c r="C17">
-        <v>14.58429556268654</v>
+        <v>14.5842955626867</v>
       </c>
       <c r="D17">
-        <v>3.11147732556615</v>
+        <v>3.111477325566125</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.85788602868322</v>
+        <v>42.8578860286833</v>
       </c>
       <c r="G17">
-        <v>32.87992001067751</v>
+        <v>32.87992001067758</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>37.90628134437594</v>
+        <v>37.90628134437589</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.20660496575724</v>
+        <v>31.20660496575739</v>
       </c>
       <c r="C18">
-        <v>14.41628747145451</v>
+        <v>14.41628747145471</v>
       </c>
       <c r="D18">
-        <v>3.122033685112246</v>
+        <v>3.122033685112187</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.24867316934624</v>
+        <v>42.24867316934648</v>
       </c>
       <c r="G18">
-        <v>32.44184527377183</v>
+        <v>32.44184527377196</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.31214301738085</v>
+        <v>37.31214301738083</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.05629160446113</v>
+        <v>31.05629160446109</v>
       </c>
       <c r="C19">
-        <v>14.35906690132758</v>
+        <v>14.35906690132778</v>
       </c>
       <c r="D19">
-        <v>3.125758032340743</v>
+        <v>3.125758032340682</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.04213722158214</v>
+        <v>42.0421372215819</v>
       </c>
       <c r="G19">
-        <v>32.30129658395243</v>
+        <v>32.30129658395224</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.11076540665555</v>
+        <v>37.11076540665547</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.73005801512878</v>
+        <v>31.7300580151288</v>
       </c>
       <c r="C20">
-        <v>14.61523119436804</v>
+        <v>14.61523119436807</v>
       </c>
       <c r="D20">
-        <v>3.109597245427961</v>
+        <v>3.109597245427911</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.97051878962552</v>
+        <v>42.9705187896255</v>
       </c>
       <c r="G20">
-        <v>32.96810599833402</v>
+        <v>32.96810599833399</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.01615751915549</v>
+        <v>38.01615751915548</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.95076013473614</v>
+        <v>33.95076013473604</v>
       </c>
       <c r="C21">
-        <v>15.45296866218558</v>
+        <v>15.45296866218555</v>
       </c>
       <c r="D21">
-        <v>3.067276800535496</v>
+        <v>3.067276800535486</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.0764749263899</v>
+        <v>46.07647492638973</v>
       </c>
       <c r="G21">
-        <v>35.400808932147</v>
+        <v>35.40080893214683</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.05352054190872</v>
+        <v>41.05352054190868</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>35.3748405891581</v>
       </c>
       <c r="C22">
-        <v>15.98394080050189</v>
+        <v>15.98394080050186</v>
       </c>
       <c r="D22">
-        <v>3.050626782580097</v>
+        <v>3.050626782580055</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.10393248026638</v>
+        <v>48.10393248026622</v>
       </c>
       <c r="G22">
-        <v>36.98995036408136</v>
+        <v>36.98995036408126</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>43.04915053032049</v>
+        <v>43.04915053032041</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.61693190624326</v>
+        <v>34.61693190624324</v>
       </c>
       <c r="C23">
-        <v>15.7020252504669</v>
+        <v>15.70202525046703</v>
       </c>
       <c r="D23">
-        <v>3.058355478579976</v>
+        <v>3.058355478580005</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.02151505647686</v>
+        <v>47.02151505647694</v>
       </c>
       <c r="G23">
-        <v>36.14140976281294</v>
+        <v>36.14140976281303</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.98205412798802</v>
+        <v>41.98205412798809</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.69323092324788</v>
+        <v>31.69323092324786</v>
       </c>
       <c r="C24">
-        <v>14.60125147698309</v>
+        <v>14.601251476983</v>
       </c>
       <c r="D24">
-        <v>3.110444336980664</v>
+        <v>3.110444336980809</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.91960268637893</v>
+        <v>42.91960268637891</v>
       </c>
       <c r="G24">
         <v>32.92824092444231</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>37.96648616069073</v>
+        <v>37.96648616069067</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.39341657137404</v>
+        <v>28.39341657137405</v>
       </c>
       <c r="C25">
-        <v>13.33948637785617</v>
+        <v>13.33948637785616</v>
       </c>
       <c r="D25">
-        <v>3.201474194940018</v>
+        <v>3.201474194939968</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.70801680081036</v>
+        <v>38.70801680081038</v>
       </c>
       <c r="G25">
         <v>29.87954422148838</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.59720050650593</v>
+        <v>33.59720050650596</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.8125892178516</v>
+        <v>25.81258921785158</v>
       </c>
       <c r="C2">
-        <v>12.34339780603419</v>
+        <v>12.34339780603422</v>
       </c>
       <c r="D2">
-        <v>3.288271445645694</v>
+        <v>3.288271445645861</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.63848615941477</v>
+        <v>35.63848615941484</v>
       </c>
       <c r="G2">
-        <v>27.66593497339548</v>
+        <v>27.66593497339556</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.27886329305289</v>
+        <v>30.27886329305284</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.95926489363228</v>
+        <v>23.95926489363237</v>
       </c>
       <c r="C3">
-        <v>11.62549990187934</v>
+        <v>11.6254999018795</v>
       </c>
       <c r="D3">
-        <v>3.355849722524241</v>
+        <v>3.355849722524088</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.5353176111499</v>
+        <v>33.53531761114993</v>
       </c>
       <c r="G3">
-        <v>26.1674095213091</v>
+        <v>26.16740952130909</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.94168049700432</v>
+        <v>27.94168049700438</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76713201289304</v>
+        <v>22.76713201289309</v>
       </c>
       <c r="C4">
-        <v>11.16341046602822</v>
+        <v>11.16341046602795</v>
       </c>
       <c r="D4">
-        <v>3.400787154287694</v>
+        <v>3.400787154287855</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.23251843755698</v>
+        <v>32.23251843755703</v>
       </c>
       <c r="G4">
-        <v>25.24799587353458</v>
+        <v>25.24799587353464</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.45647983347333</v>
+        <v>26.45647983347336</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.26734009732616</v>
+        <v>22.26734009732618</v>
       </c>
       <c r="C5">
-        <v>10.96974639656622</v>
+        <v>10.96974639656614</v>
       </c>
       <c r="D5">
-        <v>3.4198602008948</v>
+        <v>3.41986020089496</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.69891325938207</v>
+        <v>31.69891325938195</v>
       </c>
       <c r="G5">
-        <v>24.87361614764046</v>
+        <v>24.8736161476404</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.83779057394094</v>
+        <v>25.83779057394096</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.18349521622521</v>
+        <v>22.1834952162251</v>
       </c>
       <c r="C6">
-        <v>10.93726524586842</v>
+        <v>10.93726524586858</v>
       </c>
       <c r="D6">
-        <v>3.423070500666608</v>
+        <v>3.423070500666726</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>31.61015351313651</v>
       </c>
       <c r="G6">
-        <v>24.81147361541018</v>
+        <v>24.81147361541021</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.73422213195652</v>
+        <v>25.7342221319565</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76044873701815</v>
+        <v>22.76044873701814</v>
       </c>
       <c r="C7">
-        <v>11.16082033291927</v>
+        <v>11.16082033291931</v>
       </c>
       <c r="D7">
-        <v>3.40104142497185</v>
+        <v>3.401041424971845</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.22533264797133</v>
+        <v>32.22533264797136</v>
       </c>
       <c r="G7">
-        <v>25.24294545478545</v>
+        <v>25.24294545478548</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.44819150566023</v>
+        <v>26.44819150566021</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.18457885111344</v>
+        <v>25.18457885111329</v>
       </c>
       <c r="C8">
-        <v>12.10027863346343</v>
+        <v>12.10027863346337</v>
       </c>
       <c r="D8">
-        <v>3.310787569809655</v>
+        <v>3.310787569809922</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.91573997716197</v>
+        <v>34.91573997716194</v>
       </c>
       <c r="G8">
-        <v>27.14913432103623</v>
+        <v>27.14913432103624</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.4828701008372</v>
+        <v>29.48287010083725</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.52695478172067</v>
+        <v>29.52695478172059</v>
       </c>
       <c r="C9">
-        <v>13.77475765551289</v>
+        <v>13.77475765551286</v>
       </c>
       <c r="D9">
-        <v>3.167167997072026</v>
+        <v>3.16716799707202</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.10286541716641</v>
+        <v>40.10286541716632</v>
       </c>
       <c r="G9">
-        <v>30.89429649367523</v>
+        <v>30.89429649367518</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.49687552091272</v>
+        <v>32.4968755209129</v>
       </c>
       <c r="C10">
-        <v>14.90570938304385</v>
+        <v>14.90570938304365</v>
       </c>
       <c r="D10">
-        <v>3.092971752396566</v>
+        <v>3.092971752396599</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.03514950412498</v>
+        <v>44.03514950412518</v>
       </c>
       <c r="G10">
-        <v>33.80176042420931</v>
+        <v>33.80176042420946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.05541822019153</v>
+        <v>39.05541822019164</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.80856044140464</v>
+        <v>33.80856044140466</v>
       </c>
       <c r="C11">
-        <v>15.39966070388127</v>
+        <v>15.39966070388126</v>
       </c>
       <c r="D11">
-        <v>3.06942477903217</v>
+        <v>3.069424779032091</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.87552914230567</v>
+        <v>45.8755291423055</v>
       </c>
       <c r="G11">
-        <v>35.2433609182837</v>
+        <v>35.24336091828355</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.85641099958045</v>
+        <v>40.85641099958055</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>15.58386163359554</v>
       </c>
       <c r="D12">
-        <v>3.062354413792423</v>
+        <v>3.062354413792444</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.57185871139822</v>
+        <v>46.57185871139813</v>
       </c>
       <c r="G12">
-        <v>35.78899982387488</v>
+        <v>35.7889998238748</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.53992102098729</v>
+        <v>41.53992102098722</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.19474088138274</v>
+        <v>34.1947408813827</v>
       </c>
       <c r="C13">
-        <v>15.54431547768853</v>
+        <v>15.54431547768839</v>
       </c>
       <c r="D13">
-        <v>3.063787994987284</v>
+        <v>3.063787994987281</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.42189201665838</v>
+        <v>46.42189201665833</v>
       </c>
       <c r="G13">
-        <v>35.67147726097382</v>
+        <v>35.67147726097377</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.39259992271371</v>
+        <v>41.39259992271369</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.84912180597836</v>
+        <v>33.8491218059783</v>
       </c>
       <c r="C14">
-        <v>15.4148714398348</v>
+        <v>15.41487143983475</v>
       </c>
       <c r="D14">
-        <v>3.068803592039921</v>
+        <v>3.068803592039886</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.93281919942471</v>
+        <v>45.93281919942449</v>
       </c>
       <c r="G14">
-        <v>35.28824872773853</v>
+        <v>35.28824872773834</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.91259653118656</v>
+        <v>40.91259653118655</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.63682758410178</v>
+        <v>33.63682758410174</v>
       </c>
       <c r="C15">
-        <v>15.33521575628929</v>
+        <v>15.33521575628939</v>
       </c>
       <c r="D15">
-        <v>3.072129050794357</v>
+        <v>3.072129050794312</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.63321848832377</v>
+        <v>45.63321848832378</v>
       </c>
       <c r="G15">
-        <v>35.05351427305521</v>
+        <v>35.0535142730552</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.61886421615253</v>
+        <v>40.61886421615249</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.41043318276971</v>
+        <v>32.41043318276988</v>
       </c>
       <c r="C16">
-        <v>14.87302395207965</v>
+        <v>14.87302395207974</v>
       </c>
       <c r="D16">
-        <v>3.094746320466163</v>
+        <v>3.094746320466115</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.91471357271028</v>
+        <v>43.91471357271044</v>
       </c>
       <c r="G16">
-        <v>33.70744395510197</v>
+        <v>33.7074439551021</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.93777848228036</v>
+        <v>38.93777848228046</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.64857271810852</v>
+        <v>31.64857271810846</v>
       </c>
       <c r="C17">
-        <v>14.5842955626867</v>
+        <v>14.58429556268654</v>
       </c>
       <c r="D17">
-        <v>3.111477325566125</v>
+        <v>3.11147732556615</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.8578860286833</v>
+        <v>42.85788602868322</v>
       </c>
       <c r="G17">
-        <v>32.87992001067758</v>
+        <v>32.87992001067751</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>37.90628134437589</v>
+        <v>37.90628134437594</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.20660496575739</v>
+        <v>31.20660496575724</v>
       </c>
       <c r="C18">
-        <v>14.41628747145471</v>
+        <v>14.41628747145451</v>
       </c>
       <c r="D18">
-        <v>3.122033685112187</v>
+        <v>3.122033685112246</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.24867316934648</v>
+        <v>42.24867316934624</v>
       </c>
       <c r="G18">
-        <v>32.44184527377196</v>
+        <v>32.44184527377183</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.31214301738083</v>
+        <v>37.31214301738085</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.05629160446109</v>
+        <v>31.05629160446113</v>
       </c>
       <c r="C19">
-        <v>14.35906690132778</v>
+        <v>14.35906690132758</v>
       </c>
       <c r="D19">
-        <v>3.125758032340682</v>
+        <v>3.125758032340743</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.0421372215819</v>
+        <v>42.04213722158214</v>
       </c>
       <c r="G19">
-        <v>32.30129658395224</v>
+        <v>32.30129658395243</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.11076540665547</v>
+        <v>37.11076540665555</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.7300580151288</v>
+        <v>31.73005801512878</v>
       </c>
       <c r="C20">
-        <v>14.61523119436807</v>
+        <v>14.61523119436804</v>
       </c>
       <c r="D20">
-        <v>3.109597245427911</v>
+        <v>3.109597245427961</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.9705187896255</v>
+        <v>42.97051878962552</v>
       </c>
       <c r="G20">
-        <v>32.96810599833399</v>
+        <v>32.96810599833402</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.01615751915548</v>
+        <v>38.01615751915549</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.95076013473604</v>
+        <v>33.95076013473614</v>
       </c>
       <c r="C21">
-        <v>15.45296866218555</v>
+        <v>15.45296866218558</v>
       </c>
       <c r="D21">
-        <v>3.067276800535486</v>
+        <v>3.067276800535496</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.07647492638973</v>
+        <v>46.0764749263899</v>
       </c>
       <c r="G21">
-        <v>35.40080893214683</v>
+        <v>35.400808932147</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.05352054190868</v>
+        <v>41.05352054190872</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>35.3748405891581</v>
       </c>
       <c r="C22">
-        <v>15.98394080050186</v>
+        <v>15.98394080050189</v>
       </c>
       <c r="D22">
-        <v>3.050626782580055</v>
+        <v>3.050626782580097</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.10393248026622</v>
+        <v>48.10393248026638</v>
       </c>
       <c r="G22">
-        <v>36.98995036408126</v>
+        <v>36.98995036408136</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>43.04915053032041</v>
+        <v>43.04915053032049</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.61693190624324</v>
+        <v>34.61693190624326</v>
       </c>
       <c r="C23">
-        <v>15.70202525046703</v>
+        <v>15.7020252504669</v>
       </c>
       <c r="D23">
-        <v>3.058355478580005</v>
+        <v>3.058355478579976</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.02151505647694</v>
+        <v>47.02151505647686</v>
       </c>
       <c r="G23">
-        <v>36.14140976281303</v>
+        <v>36.14140976281294</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.98205412798809</v>
+        <v>41.98205412798802</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.69323092324786</v>
+        <v>31.69323092324788</v>
       </c>
       <c r="C24">
-        <v>14.601251476983</v>
+        <v>14.60125147698309</v>
       </c>
       <c r="D24">
-        <v>3.110444336980809</v>
+        <v>3.110444336980664</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.91960268637891</v>
+        <v>42.91960268637893</v>
       </c>
       <c r="G24">
         <v>32.92824092444231</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>37.96648616069067</v>
+        <v>37.96648616069073</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.39341657137405</v>
+        <v>28.39341657137404</v>
       </c>
       <c r="C25">
-        <v>13.33948637785616</v>
+        <v>13.33948637785617</v>
       </c>
       <c r="D25">
-        <v>3.201474194939968</v>
+        <v>3.201474194940018</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.70801680081038</v>
+        <v>38.70801680081036</v>
       </c>
       <c r="G25">
         <v>29.87954422148838</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.59720050650596</v>
+        <v>33.59720050650593</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.81258921785158</v>
+        <v>25.81133355437801</v>
       </c>
       <c r="C2">
-        <v>12.34339780603422</v>
+        <v>12.3418012758744</v>
       </c>
       <c r="D2">
-        <v>3.288271445645861</v>
+        <v>3.283021637094107</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.63848615941484</v>
+        <v>35.60211558678603</v>
       </c>
       <c r="G2">
-        <v>27.66593497339556</v>
+        <v>27.03731015267901</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.70085131970399</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.27886329305284</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>30.27824126419181</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.95926489363237</v>
+        <v>23.95835424667787</v>
       </c>
       <c r="C3">
-        <v>11.6254999018795</v>
+        <v>11.6242644076281</v>
       </c>
       <c r="D3">
-        <v>3.355849722524088</v>
+        <v>3.351167510148796</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.53531761114993</v>
+        <v>33.50154660068409</v>
       </c>
       <c r="G3">
-        <v>26.16740952130909</v>
+        <v>25.29703802544362</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.2006809147744</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.94168049700438</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>27.94125958131855</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76713201289309</v>
+        <v>22.76642177845963</v>
       </c>
       <c r="C4">
-        <v>11.16341046602795</v>
+        <v>11.16240387993447</v>
       </c>
       <c r="D4">
-        <v>3.400787154287855</v>
+        <v>3.396430613909099</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.23251843755703</v>
+        <v>32.20040471983631</v>
       </c>
       <c r="G4">
-        <v>25.24799587353464</v>
+        <v>24.21253924873274</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.28030271669986</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.45647983347336</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26.45616631536219</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.26734009732618</v>
+        <v>22.26670920387383</v>
       </c>
       <c r="C5">
-        <v>10.96974639656614</v>
+        <v>10.96883530104112</v>
       </c>
       <c r="D5">
-        <v>3.41986020089496</v>
+        <v>3.41563137770664</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.69891325938195</v>
+        <v>31.66749107476671</v>
       </c>
       <c r="G5">
-        <v>24.8736161476404</v>
+        <v>23.76664569197715</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.90554214946123</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.83779057394096</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>25.83751751757886</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.1834952162251</v>
+        <v>22.18287737106048</v>
       </c>
       <c r="C6">
-        <v>10.93726524586858</v>
+        <v>10.93637015127119</v>
       </c>
       <c r="D6">
-        <v>3.423070500666726</v>
+        <v>3.41886260428697</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.61015351313651</v>
+        <v>31.57884715208747</v>
       </c>
       <c r="G6">
-        <v>24.81147361541021</v>
+        <v>23.69237133290808</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.84333714097053</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.7342221319565</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25.73395561363497</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76044873701814</v>
+        <v>22.75973958137174</v>
       </c>
       <c r="C7">
-        <v>11.16082033291931</v>
+        <v>11.15981502518722</v>
       </c>
       <c r="D7">
-        <v>3.401041424971845</v>
+        <v>3.396686626298421</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.22533264797136</v>
+        <v>32.19322819016298</v>
       </c>
       <c r="G7">
-        <v>25.24294545478548</v>
+        <v>24.20654158483903</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.27524711122797</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.44819150566021</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26.44787854573323</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.18457885111329</v>
+        <v>25.18344487690042</v>
       </c>
       <c r="C8">
-        <v>12.10027863346337</v>
+        <v>12.09880532410813</v>
       </c>
       <c r="D8">
-        <v>3.310787569809922</v>
+        <v>3.305738662303966</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.91573997716194</v>
+        <v>34.88025360316232</v>
       </c>
       <c r="G8">
-        <v>27.14913432103624</v>
+        <v>26.44057034912707</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.18347450851766</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.48287010083725</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>29.48232125144369</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.52695478172059</v>
+        <v>29.52486699032729</v>
       </c>
       <c r="C9">
-        <v>13.77475765551286</v>
+        <v>13.7724059586028</v>
       </c>
       <c r="D9">
-        <v>3.16716799707202</v>
+        <v>3.160543147683748</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.10286541716632</v>
+        <v>40.06118166929632</v>
       </c>
       <c r="G9">
-        <v>30.89429649367518</v>
+        <v>30.700149017653</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.93296380010311</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.0808364196556</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>35.07965340787688</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.4968755209129</v>
+        <v>32.49395957049343</v>
       </c>
       <c r="C10">
-        <v>14.90570938304365</v>
+        <v>14.90270952166247</v>
       </c>
       <c r="D10">
-        <v>3.092971752396599</v>
+        <v>3.085015617795719</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.03514950412518</v>
+        <v>43.98864711048576</v>
       </c>
       <c r="G10">
-        <v>33.80176042420946</v>
+        <v>33.8450396919751</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.7758415973481</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.05541822019164</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>39.05357898772892</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.80856044140466</v>
+        <v>33.80522312415368</v>
       </c>
       <c r="C11">
-        <v>15.39966070388126</v>
+        <v>15.39635853411958</v>
       </c>
       <c r="D11">
-        <v>3.069424779032091</v>
+        <v>3.060818892444981</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.8755291423055</v>
+        <v>45.82707485891896</v>
       </c>
       <c r="G11">
-        <v>35.24336091828355</v>
+        <v>35.28843228837013</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>35.17186064113302</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.85641099958055</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>40.85420181396962</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.30049057038823</v>
+        <v>34.29698529512915</v>
       </c>
       <c r="C12">
-        <v>15.58386163359554</v>
+        <v>15.58044323501301</v>
       </c>
       <c r="D12">
-        <v>3.062354413792444</v>
+        <v>3.053495962023022</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.57185871139813</v>
+        <v>46.52266111595512</v>
       </c>
       <c r="G12">
-        <v>35.7889998238748</v>
+        <v>35.83474803927307</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>35.70109246714159</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.53992102098722</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>41.53755763568437</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.1947408813827</v>
+        <v>34.19127219057518</v>
       </c>
       <c r="C13">
-        <v>15.54431547768839</v>
+        <v>15.54092220106576</v>
       </c>
       <c r="D13">
-        <v>3.063787994987281</v>
+        <v>3.054984226109058</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.42189201665833</v>
+        <v>46.3728547620334</v>
       </c>
       <c r="G13">
-        <v>35.67147726097377</v>
+        <v>35.71707979205885</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>35.58706659172681</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>41.39259992271369</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>41.39027045226742</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.8491218059783</v>
+        <v>33.84577085254012</v>
       </c>
       <c r="C14">
-        <v>15.41487143983475</v>
+        <v>15.41155974727462</v>
       </c>
       <c r="D14">
-        <v>3.068803592039886</v>
+        <v>3.060177057004449</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.93281919942449</v>
+        <v>45.8843038716298</v>
       </c>
       <c r="G14">
-        <v>35.28824872773834</v>
+        <v>35.33337582058883</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>35.21538191666211</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.91259653118655</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>40.91037496963067</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.63682758410174</v>
+        <v>33.63354758564203</v>
       </c>
       <c r="C15">
-        <v>15.33521575628939</v>
+        <v>15.33195378607472</v>
       </c>
       <c r="D15">
-        <v>3.072129050794312</v>
+        <v>3.063610229171604</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.63321848832378</v>
+        <v>45.58502218622925</v>
       </c>
       <c r="G15">
-        <v>35.0535142730552</v>
+        <v>35.09834990093707</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.98782752941948</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.61886421615249</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>40.61670677528704</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.41043318276988</v>
+        <v>32.40754371584219</v>
       </c>
       <c r="C16">
-        <v>14.87302395207974</v>
+        <v>14.87004364179635</v>
       </c>
       <c r="D16">
-        <v>3.094746320466115</v>
+        <v>3.086831737527524</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.91471357271044</v>
+        <v>43.86833837625942</v>
       </c>
       <c r="G16">
-        <v>33.7074439551021</v>
+        <v>33.75060587729908</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.68462721481832</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.93777848228046</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>38.93596169427194</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.64857271810846</v>
+        <v>31.64591016836444</v>
       </c>
       <c r="C17">
-        <v>14.58429556268654</v>
+        <v>14.58148568392003</v>
       </c>
       <c r="D17">
-        <v>3.11147732556615</v>
+        <v>3.103921884903794</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.85788602868322</v>
+        <v>42.81262477268113</v>
       </c>
       <c r="G17">
-        <v>32.87992001067751</v>
+        <v>32.92205241350039</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.89840918948415</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>37.90628134437594</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>37.90465293865878</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.20660496575724</v>
+        <v>31.20406887861839</v>
       </c>
       <c r="C18">
-        <v>14.41628747145451</v>
+        <v>14.41357496517308</v>
       </c>
       <c r="D18">
-        <v>3.122033685112246</v>
+        <v>3.114680650417811</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.24867316934624</v>
+        <v>42.20405252746886</v>
       </c>
       <c r="G18">
-        <v>32.44184527377183</v>
+        <v>32.4445067666222</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.48237235698892</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.31214301738085</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>37.31061653642306</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.05629160446113</v>
+        <v>31.05379769008181</v>
       </c>
       <c r="C19">
-        <v>14.35906690132758</v>
+        <v>14.35638727003225</v>
       </c>
       <c r="D19">
-        <v>3.125758032340743</v>
+        <v>3.118472824818049</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.04213722158214</v>
+        <v>41.9977335583331</v>
       </c>
       <c r="G19">
-        <v>32.30129658395243</v>
+        <v>32.2826202129164</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.34165371764432</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.11076540665555</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>37.10927242622239</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.73005801512878</v>
+        <v>31.72737174171005</v>
       </c>
       <c r="C20">
-        <v>14.61523119436804</v>
+        <v>14.61240324524194</v>
       </c>
       <c r="D20">
-        <v>3.109597245427961</v>
+        <v>3.10200400673585</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.97051878962552</v>
+        <v>42.92513898552501</v>
       </c>
       <c r="G20">
-        <v>32.96810599833402</v>
+        <v>33.01034809066347</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.97548200208207</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.01615751915549</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>38.01450974831973</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.95076013473614</v>
+        <v>33.94737484570485</v>
       </c>
       <c r="C21">
-        <v>15.45296866218558</v>
+        <v>15.44963305994739</v>
       </c>
       <c r="D21">
-        <v>3.067276800535496</v>
+        <v>3.058598383974692</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.0764749263899</v>
+        <v>46.02780644364957</v>
       </c>
       <c r="G21">
-        <v>35.400808932147</v>
+        <v>35.44607572468698</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>35.32452879154377</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>41.05352054190872</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>41.05126770594064</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.3748405891581</v>
+        <v>35.37094809480546</v>
       </c>
       <c r="C22">
-        <v>15.98394080050189</v>
+        <v>15.98026280090846</v>
       </c>
       <c r="D22">
-        <v>3.050626782580097</v>
+        <v>3.041201365076845</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.10393248026638</v>
+        <v>48.05308775942867</v>
       </c>
       <c r="G22">
-        <v>36.98995036408136</v>
+        <v>37.03718328918794</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>36.8674243580864</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>43.04915053032049</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>43.04641698361842</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.61693190624326</v>
+        <v>34.61331555489619</v>
       </c>
       <c r="C23">
-        <v>15.7020252504669</v>
+        <v>15.69853122388741</v>
       </c>
       <c r="D23">
-        <v>3.058355478579976</v>
+        <v>3.049332157085567</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.02151505647686</v>
+        <v>46.97183580341927</v>
       </c>
       <c r="G23">
-        <v>36.14140976281294</v>
+        <v>36.18759446237087</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>36.04313627323166</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.98205412798802</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>41.9795866542134</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.69323092324788</v>
+        <v>31.690555387606</v>
       </c>
       <c r="C24">
-        <v>14.60125147698309</v>
+        <v>14.59843169931966</v>
       </c>
       <c r="D24">
-        <v>3.110444336980664</v>
+        <v>3.102868199435356</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.91960268637893</v>
+        <v>42.87427647700888</v>
       </c>
       <c r="G24">
-        <v>32.92824092444231</v>
+        <v>32.97043342974975</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.94063500639348</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>37.96648616069073</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>37.96484716442662</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.39341657137404</v>
+        <v>28.39160453018843</v>
       </c>
       <c r="C25">
-        <v>13.33948637785617</v>
+        <v>13.33737071559067</v>
       </c>
       <c r="D25">
-        <v>3.201474194940018</v>
+        <v>3.195303345491633</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.70801680081036</v>
+        <v>38.66797148889174</v>
       </c>
       <c r="G25">
-        <v>29.87954422148838</v>
+        <v>29.55940526961602</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.91700964960658</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.59720050650593</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>33.59621469247875</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.81133355437801</v>
+        <v>28.92347993296988</v>
       </c>
       <c r="C2">
-        <v>12.3418012758744</v>
+        <v>22.0656753970396</v>
       </c>
       <c r="D2">
-        <v>3.283021637094107</v>
+        <v>4.180789350847696</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.60211558678603</v>
+        <v>45.73898252246622</v>
       </c>
       <c r="G2">
-        <v>27.03731015267901</v>
+        <v>2.063029604271431</v>
       </c>
       <c r="H2">
-        <v>27.70085131970399</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.309547155925587</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.27824126419181</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>12.75519349509727</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.95835424667787</v>
+        <v>26.81789332001682</v>
       </c>
       <c r="C3">
-        <v>11.6242644076281</v>
+        <v>20.44055983524998</v>
       </c>
       <c r="D3">
-        <v>3.351167510148796</v>
+        <v>4.037021534574125</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.50154660068409</v>
+        <v>43.48687766957745</v>
       </c>
       <c r="G3">
-        <v>25.29703802544362</v>
+        <v>2.077777291246256</v>
       </c>
       <c r="H3">
-        <v>26.2006809147744</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.024527516404854</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.94125958131855</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>13.01740214217839</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76642177845963</v>
+        <v>25.47935679943855</v>
       </c>
       <c r="C4">
-        <v>11.16240387993447</v>
+        <v>19.40023444448846</v>
       </c>
       <c r="D4">
-        <v>3.396430613909099</v>
+        <v>3.948187635552009</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.20040471983631</v>
+        <v>42.11329931048211</v>
       </c>
       <c r="G4">
-        <v>24.21253924873274</v>
+        <v>2.086962131658252</v>
       </c>
       <c r="H4">
-        <v>25.28030271669986</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.853823194351437</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.45616631536219</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>13.18249992541574</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.26670920387383</v>
+        <v>24.96089793558496</v>
       </c>
       <c r="C5">
-        <v>10.96883530104112</v>
+        <v>18.96533097600141</v>
       </c>
       <c r="D5">
-        <v>3.41563137770664</v>
+        <v>3.911887816962836</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.66749107476671</v>
+        <v>41.55606612356028</v>
       </c>
       <c r="G5">
-        <v>23.76664569197715</v>
+        <v>2.090743400850753</v>
       </c>
       <c r="H5">
-        <v>24.90554214946123</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.78534106712597</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.83751751757886</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>13.25079852621446</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.18287737106048</v>
+        <v>24.87417010397381</v>
       </c>
       <c r="C6">
-        <v>10.93637015127119</v>
+        <v>18.89244635819657</v>
       </c>
       <c r="D6">
-        <v>3.41886260428697</v>
+        <v>3.905855590631071</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.57884715208747</v>
+        <v>41.46369797895971</v>
       </c>
       <c r="G6">
-        <v>23.69237133290808</v>
+        <v>2.091373752130287</v>
       </c>
       <c r="H6">
-        <v>24.84333714097053</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.774035178475266</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.73395561363497</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>13.26220086528516</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.75973958137174</v>
+        <v>25.47240750384901</v>
       </c>
       <c r="C7">
-        <v>11.15981502518722</v>
+        <v>19.39441389999765</v>
       </c>
       <c r="D7">
-        <v>3.396686626298421</v>
+        <v>3.947698426303177</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.19322819016298</v>
+        <v>42.10577374336037</v>
       </c>
       <c r="G7">
-        <v>24.20654158483903</v>
+        <v>2.087012964640594</v>
       </c>
       <c r="H7">
-        <v>25.27524711122797</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.852895234151023</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.44787854573323</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>13.18341690414275</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.18344487690042</v>
+        <v>28.20864229761661</v>
       </c>
       <c r="C8">
-        <v>12.09880532410813</v>
+        <v>21.51397405626983</v>
       </c>
       <c r="D8">
-        <v>3.305738662303966</v>
+        <v>4.13135737454717</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.88025360316232</v>
+        <v>44.960610004652</v>
       </c>
       <c r="G8">
-        <v>26.44057034912707</v>
+        <v>2.06809135662976</v>
       </c>
       <c r="H8">
-        <v>27.18347450851766</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.210376415247275</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.48232125144369</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>12.84474275103163</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.52486699032729</v>
+        <v>33.17577969153621</v>
       </c>
       <c r="C9">
-        <v>13.7724059586028</v>
+        <v>25.34851529920297</v>
       </c>
       <c r="D9">
-        <v>3.160543147683748</v>
+        <v>4.48559859257776</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.06118166929632</v>
+        <v>50.63278802830485</v>
       </c>
       <c r="G9">
-        <v>30.700149017653</v>
+        <v>2.031716945473314</v>
       </c>
       <c r="H9">
-        <v>30.93296380010311</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.946331306125211</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>35.07965340787688</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>12.21414507636088</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.49395957049343</v>
+        <v>36.60053086572842</v>
       </c>
       <c r="C10">
-        <v>14.90270952166247</v>
+        <v>27.99563350485808</v>
       </c>
       <c r="D10">
-        <v>3.085015617795719</v>
+        <v>4.740871841930481</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.98864711048576</v>
+        <v>54.86221180396815</v>
       </c>
       <c r="G10">
-        <v>33.8450396919751</v>
+        <v>2.004948603155722</v>
       </c>
       <c r="H10">
-        <v>33.7758415973481</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.511189622649601</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.05357898772892</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>11.77380372132292</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.80522312415368</v>
+        <v>38.11850537734009</v>
       </c>
       <c r="C11">
-        <v>15.39635853411958</v>
+        <v>29.17038992777947</v>
       </c>
       <c r="D11">
-        <v>3.060818892444981</v>
+        <v>4.855816459386588</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.82707485891896</v>
+        <v>56.80881044061397</v>
       </c>
       <c r="G11">
-        <v>35.28843228837013</v>
+        <v>1.992625397125338</v>
       </c>
       <c r="H11">
-        <v>35.17186064113302</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.774655361590016</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.85420181396962</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>11.57949405008584</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.29698529512915</v>
+        <v>38.68849528638209</v>
       </c>
       <c r="C12">
-        <v>15.58044323501301</v>
+        <v>29.61178565007362</v>
       </c>
       <c r="D12">
-        <v>3.053495962023022</v>
+        <v>4.899179147085041</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.52266111595512</v>
+        <v>57.55037530799161</v>
       </c>
       <c r="G12">
-        <v>35.83474803927307</v>
+        <v>1.987923807636818</v>
       </c>
       <c r="H12">
-        <v>35.70109246714159</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.875519517075123</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.53755763568437</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>11.50691335300058</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.19127219057518</v>
+        <v>38.56593616261008</v>
       </c>
       <c r="C13">
-        <v>15.54092220106576</v>
+        <v>29.51686299014418</v>
       </c>
       <c r="D13">
-        <v>3.054984226109058</v>
+        <v>4.889847301645024</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.3728547620334</v>
+        <v>57.39044584301561</v>
       </c>
       <c r="G13">
-        <v>35.71707979205885</v>
+        <v>1.988938192568176</v>
       </c>
       <c r="H13">
-        <v>35.58706659172681</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.853744759101339</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.39027045226742</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>11.5224976881404</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.84577085254012</v>
+        <v>38.16548976388679</v>
       </c>
       <c r="C14">
-        <v>15.41155974727462</v>
+        <v>29.20676814635628</v>
       </c>
       <c r="D14">
-        <v>3.060177057004449</v>
+        <v>4.859387150815174</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.8843038716298</v>
+        <v>56.86972243417026</v>
       </c>
       <c r="G14">
-        <v>35.33337582058883</v>
+        <v>1.992239387707743</v>
       </c>
       <c r="H14">
-        <v>35.21538191666211</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.782930451388404</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.91037496963067</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>11.57350178108724</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.63354758564203</v>
+        <v>37.91960555749976</v>
       </c>
       <c r="C15">
-        <v>15.33195378607472</v>
+        <v>29.01640127533727</v>
       </c>
       <c r="D15">
-        <v>3.063610229171604</v>
+        <v>4.840708404669885</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.58502218622925</v>
+        <v>56.55138315088492</v>
       </c>
       <c r="G15">
-        <v>35.09834990093707</v>
+        <v>1.994256434657355</v>
       </c>
       <c r="H15">
-        <v>34.98782752941948</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.739702969333361</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.61670677528704</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>11.60487843719002</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.40754371584219</v>
+        <v>36.50059733642884</v>
       </c>
       <c r="C16">
-        <v>14.87004364179635</v>
+        <v>27.91833079046688</v>
       </c>
       <c r="D16">
-        <v>3.086831737527524</v>
+        <v>4.733336364308201</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.86833837625942</v>
+        <v>54.73554379536741</v>
       </c>
       <c r="G16">
-        <v>33.75060587729908</v>
+        <v>2.005749874040487</v>
       </c>
       <c r="H16">
-        <v>33.68462721481832</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.49411490483357</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.93596169427194</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>11.78663371546282</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.64591016836444</v>
+        <v>35.62043927050981</v>
       </c>
       <c r="C17">
-        <v>14.58148568392003</v>
+        <v>27.23766529964862</v>
       </c>
       <c r="D17">
-        <v>3.103921884903794</v>
+        <v>4.667164714521302</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.81262477268113</v>
+        <v>53.6280936274407</v>
       </c>
       <c r="G17">
-        <v>32.92205241350039</v>
+        <v>2.012754133435189</v>
       </c>
       <c r="H17">
-        <v>32.89840918948415</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.345218681274577</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.90465293865878</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>11.89975493658183</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.20406887861839</v>
+        <v>35.11036979341484</v>
       </c>
       <c r="C18">
-        <v>14.41357496517308</v>
+        <v>26.84333995636884</v>
       </c>
       <c r="D18">
-        <v>3.114680650417811</v>
+        <v>4.62899238436486</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.20405252746886</v>
+        <v>52.99315376563752</v>
       </c>
       <c r="G18">
-        <v>32.4445067666222</v>
+        <v>2.01677002462666</v>
       </c>
       <c r="H18">
-        <v>32.48237235698892</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.260177752406202</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.31061653642306</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>11.96537371178264</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.05379769008181</v>
+        <v>34.93698707841341</v>
       </c>
       <c r="C19">
-        <v>14.35638727003225</v>
+        <v>26.70932193702361</v>
       </c>
       <c r="D19">
-        <v>3.118472824818049</v>
+        <v>4.616048664547824</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.9977335583331</v>
+        <v>52.77849417034074</v>
       </c>
       <c r="G19">
-        <v>32.2826202129164</v>
+        <v>2.018127927081665</v>
       </c>
       <c r="H19">
-        <v>32.34165371764432</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.231483443678874</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.10927242622239</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>11.98768293188551</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.72737174171005</v>
+        <v>35.7145235344999</v>
       </c>
       <c r="C20">
-        <v>14.61240324524194</v>
+        <v>27.31041052079819</v>
       </c>
       <c r="D20">
-        <v>3.10200400673585</v>
+        <v>4.67422040702125</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.92513898552501</v>
+        <v>53.74576556906384</v>
       </c>
       <c r="G20">
-        <v>33.01034809066347</v>
+        <v>2.012009933155029</v>
       </c>
       <c r="H20">
-        <v>32.97548200208207</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.361005831140314</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.01450974831973</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>11.88765477106712</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.94737484570485</v>
+        <v>38.28323355070773</v>
       </c>
       <c r="C21">
-        <v>15.44963305994739</v>
+        <v>29.29793744108541</v>
       </c>
       <c r="D21">
-        <v>3.058598383974692</v>
+        <v>4.868338388886951</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.02780644364957</v>
+        <v>57.0225398646751</v>
       </c>
       <c r="G21">
-        <v>35.44607572468698</v>
+        <v>1.991270824175198</v>
       </c>
       <c r="H21">
-        <v>35.32452879154377</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.803699054137399</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.05126770594064</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>11.55849215301581</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.37094809480546</v>
+        <v>39.93442816545768</v>
       </c>
       <c r="C22">
-        <v>15.98026280090846</v>
+        <v>30.57722139851512</v>
       </c>
       <c r="D22">
-        <v>3.041201365076845</v>
+        <v>4.994259914489425</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.05308775942867</v>
+        <v>59.19078183624116</v>
       </c>
       <c r="G22">
-        <v>37.03718328918794</v>
+        <v>1.977503552979881</v>
       </c>
       <c r="H22">
-        <v>36.8674243580864</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.09952626070274</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.04641698361842</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>11.34929889365315</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.61331555489619</v>
+        <v>39.05532660670998</v>
       </c>
       <c r="C23">
-        <v>15.69853122388741</v>
+        <v>29.89594496430745</v>
       </c>
       <c r="D23">
-        <v>3.049332157085567</v>
+        <v>4.927134532041404</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.97183580341927</v>
+        <v>58.03060872336617</v>
       </c>
       <c r="G23">
-        <v>36.18759446237087</v>
+        <v>1.98487631899326</v>
       </c>
       <c r="H23">
-        <v>36.04313627323166</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.940974935988393</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.9795866542134</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>11.46034691444679</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.690555387606</v>
+        <v>35.67200073515618</v>
       </c>
       <c r="C24">
-        <v>14.59843169931966</v>
+        <v>27.27753181214803</v>
       </c>
       <c r="D24">
-        <v>3.102868199435356</v>
+        <v>4.67103093162563</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.87427647700888</v>
+        <v>53.69256072316963</v>
       </c>
       <c r="G24">
-        <v>32.97043342974975</v>
+        <v>2.0123464191889</v>
       </c>
       <c r="H24">
-        <v>32.94063500639348</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.35386672303534</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.96484716442662</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>11.89312344684787</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.39160453018843</v>
+        <v>31.87401302602247</v>
       </c>
       <c r="C25">
-        <v>13.33737071559067</v>
+        <v>24.34322304606199</v>
       </c>
       <c r="D25">
-        <v>3.195303345491633</v>
+        <v>4.390574654291687</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.66797148889174</v>
+        <v>49.08950713780884</v>
       </c>
       <c r="G25">
-        <v>29.55940526961602</v>
+        <v>2.041524822571415</v>
       </c>
       <c r="H25">
-        <v>29.91700964960658</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.743297438225612</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.59621469247875</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.38095852381099</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.92347993296988</v>
+        <v>24.71861218648607</v>
       </c>
       <c r="C2">
-        <v>22.0656753970396</v>
+        <v>18.04933658049427</v>
       </c>
       <c r="D2">
-        <v>4.180789350847696</v>
+        <v>9.99099811180198</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>45.73898252246622</v>
+        <v>22.18293208678513</v>
       </c>
       <c r="G2">
-        <v>2.063029604271431</v>
+        <v>2.068896143079812</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.309547155925587</v>
+        <v>8.307375023654373</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.75519349509727</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.88279781451508</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.81789332001682</v>
+        <v>23.0640876117784</v>
       </c>
       <c r="C3">
-        <v>20.44055983524998</v>
+        <v>16.90476039819245</v>
       </c>
       <c r="D3">
-        <v>4.037021534574125</v>
+        <v>9.473216370802657</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.48687766957745</v>
+        <v>21.62677190836375</v>
       </c>
       <c r="G3">
-        <v>2.077777291246256</v>
+        <v>2.075539229566875</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.024527516404854</v>
+        <v>8.024474045432155</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.01740214217839</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.84812146755209</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.47935679943855</v>
+        <v>21.98898654687618</v>
       </c>
       <c r="C4">
-        <v>19.40023444448846</v>
+        <v>16.16278233734444</v>
       </c>
       <c r="D4">
-        <v>3.948187635552009</v>
+        <v>9.144640035919645</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.11329931048211</v>
+        <v>21.31304389160796</v>
       </c>
       <c r="G4">
-        <v>2.086962131658252</v>
+        <v>2.079727578957109</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.853823194351437</v>
+        <v>7.851849506034438</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.18249992541574</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.852855216527</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.96089793558496</v>
+        <v>21.53588537760174</v>
       </c>
       <c r="C5">
-        <v>18.96533097600141</v>
+        <v>15.85056782713187</v>
       </c>
       <c r="D5">
-        <v>3.911887816962836</v>
+        <v>9.008199456930004</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.55606612356028</v>
+        <v>21.19213930131341</v>
       </c>
       <c r="G5">
-        <v>2.090743400850753</v>
+        <v>2.081462920787756</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.78534106712597</v>
+        <v>7.781856506767605</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.25079852621446</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.8609649085788</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.87417010397381</v>
+        <v>21.45974021796856</v>
       </c>
       <c r="C6">
-        <v>18.89244635819657</v>
+        <v>15.7981303235991</v>
       </c>
       <c r="D6">
-        <v>3.905855590631071</v>
+        <v>8.985394543066567</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.46369797895971</v>
+        <v>21.17248071574251</v>
       </c>
       <c r="G6">
-        <v>2.091373752130287</v>
+        <v>2.08175282664945</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.774035178475266</v>
+        <v>7.770258048163685</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.26220086528516</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.86267399002956</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.47240750384901</v>
+        <v>21.98293668159615</v>
       </c>
       <c r="C7">
-        <v>19.39441389999765</v>
+        <v>16.15861157432251</v>
       </c>
       <c r="D7">
-        <v>3.947698426303177</v>
+        <v>9.142810046582719</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.10577374336037</v>
+        <v>21.31138529570319</v>
       </c>
       <c r="G7">
-        <v>2.087012964640594</v>
+        <v>2.079750865444558</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.852895234151023</v>
+        <v>7.850904014334876</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.18341690414275</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.85294004939281</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.20864229761661</v>
+        <v>24.16036150962326</v>
       </c>
       <c r="C8">
-        <v>21.51397405626983</v>
+        <v>17.66282107841364</v>
       </c>
       <c r="D8">
-        <v>4.13135737454717</v>
+        <v>9.814752219598951</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.960610004652</v>
+        <v>21.98539433131851</v>
       </c>
       <c r="G8">
-        <v>2.06809135662976</v>
+        <v>2.07116459800775</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.210376415247275</v>
+        <v>8.209654088309168</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.84474275103163</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.86522498232037</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.17577969153621</v>
+        <v>27.96514770605584</v>
       </c>
       <c r="C9">
-        <v>25.34851529920297</v>
+        <v>20.30218740512362</v>
       </c>
       <c r="D9">
-        <v>4.48559859257776</v>
+        <v>11.04322015284529</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>50.63278802830485</v>
+        <v>23.52764471183681</v>
       </c>
       <c r="G9">
-        <v>2.031716945473314</v>
+        <v>2.055145654382529</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.946331306125211</v>
+        <v>8.918517020200433</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.21414507636088</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.11125006636235</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.60053086572842</v>
+        <v>30.48389611263493</v>
       </c>
       <c r="C10">
-        <v>27.99563350485808</v>
+        <v>22.05414142814433</v>
       </c>
       <c r="D10">
-        <v>4.740871841930481</v>
+        <v>11.88683935329555</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>54.86221180396815</v>
+        <v>24.79436655047296</v>
       </c>
       <c r="G10">
-        <v>2.004948603155722</v>
+        <v>2.043800635083493</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.511189622649601</v>
+        <v>9.438999593314152</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.77380372132292</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.44679349076974</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.11850537734009</v>
+        <v>31.57128843230657</v>
       </c>
       <c r="C11">
-        <v>29.17038992777947</v>
+        <v>22.81119174954845</v>
       </c>
       <c r="D11">
-        <v>4.855816459386588</v>
+        <v>12.2572830289351</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>56.80881044061397</v>
+        <v>25.39932615001122</v>
       </c>
       <c r="G11">
-        <v>1.992625397125338</v>
+        <v>2.038713357814422</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.774655361590016</v>
+        <v>9.675173612594884</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.57949405008584</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.63668108110321</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.68849528638209</v>
+        <v>31.97479769356068</v>
       </c>
       <c r="C12">
-        <v>29.61178565007362</v>
+        <v>23.09219469592194</v>
       </c>
       <c r="D12">
-        <v>4.899179147085041</v>
+        <v>12.39562211650271</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>57.55037530799161</v>
+        <v>25.63251638381919</v>
       </c>
       <c r="G12">
-        <v>1.987923807636818</v>
+        <v>2.036795872500346</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.875519517075123</v>
+        <v>9.764491524483427</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.50691335300058</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.71420023199584</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.56593616261008</v>
+        <v>31.88825999954636</v>
       </c>
       <c r="C13">
-        <v>29.51686299014418</v>
+        <v>23.03192696519877</v>
       </c>
       <c r="D13">
-        <v>4.889847301645024</v>
+        <v>12.36591481212596</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>57.39044584301561</v>
+        <v>25.58211233409429</v>
       </c>
       <c r="G13">
-        <v>1.988938192568176</v>
+        <v>2.037208466495551</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.853744759101339</v>
+        <v>9.745260823810561</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.5224976881404</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.69725168546612</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.16548976388679</v>
+        <v>31.60465017496134</v>
       </c>
       <c r="C14">
-        <v>29.20676814635628</v>
+        <v>22.83442337025664</v>
       </c>
       <c r="D14">
-        <v>4.859387150815174</v>
+        <v>12.26870322914438</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>56.86972243417026</v>
+        <v>25.4184286615279</v>
       </c>
       <c r="G14">
-        <v>1.992239387707743</v>
+        <v>2.038555435515974</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.782930451388404</v>
+        <v>9.682524305732622</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.57350178108724</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.64294477194354</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.91960555749976</v>
+        <v>31.42985907700501</v>
       </c>
       <c r="C15">
-        <v>29.01640127533727</v>
+        <v>22.71270968774668</v>
       </c>
       <c r="D15">
-        <v>4.840708404669885</v>
+        <v>12.20890525150821</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>56.55138315088492</v>
+        <v>25.31870183386605</v>
       </c>
       <c r="G15">
-        <v>1.994256434657355</v>
+        <v>2.039381608385139</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.739702969333361</v>
+        <v>9.644080577501299</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.60487843719002</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.61041829655217</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.50059733642884</v>
+        <v>30.41166870026294</v>
       </c>
       <c r="C16">
-        <v>27.91833079046688</v>
+        <v>22.00386842149112</v>
       </c>
       <c r="D16">
-        <v>4.733336364308201</v>
+        <v>11.8623594744912</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>54.73554379536741</v>
+        <v>24.75540649439215</v>
       </c>
       <c r="G16">
-        <v>2.005749874040487</v>
+        <v>2.04413444601204</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.49411490483357</v>
+        <v>9.423550189606832</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.78663371546282</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.43515601892108</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.62043927050981</v>
+        <v>29.77217818254382</v>
       </c>
       <c r="C17">
-        <v>27.23766529964862</v>
+        <v>21.55883549262669</v>
       </c>
       <c r="D17">
-        <v>4.667164714521302</v>
+        <v>11.64633030828599</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>53.6280936274407</v>
+        <v>24.41717715887217</v>
       </c>
       <c r="G17">
-        <v>2.012754133435189</v>
+        <v>2.047067899810525</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.345218681274577</v>
+        <v>9.288083707310561</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.89975493658183</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.33737025137973</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.11036979341484</v>
+        <v>29.39885482618376</v>
       </c>
       <c r="C18">
-        <v>26.84333995636884</v>
+        <v>21.29910211219956</v>
       </c>
       <c r="D18">
-        <v>4.62899238436486</v>
+        <v>11.52082240403978</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>52.99315376563752</v>
+        <v>24.22534090187951</v>
       </c>
       <c r="G18">
-        <v>2.01677002462666</v>
+        <v>2.048762180966553</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.260177752406202</v>
+        <v>9.210111903821797</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.96537371178264</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.28461889677613</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.93698707841341</v>
+        <v>29.27150441833696</v>
       </c>
       <c r="C19">
-        <v>26.70932193702361</v>
+        <v>21.21051286162706</v>
       </c>
       <c r="D19">
-        <v>4.616048664547824</v>
+        <v>11.47811326571126</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>52.77849417034074</v>
+        <v>24.16085390427652</v>
       </c>
       <c r="G19">
-        <v>2.018127927081665</v>
+        <v>2.049337091313229</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.231483443678874</v>
+        <v>9.183703662912947</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.98768293188551</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.26734971490469</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.7145235344999</v>
+        <v>29.84082186622522</v>
       </c>
       <c r="C20">
-        <v>27.31041052079819</v>
+        <v>21.60659894044463</v>
       </c>
       <c r="D20">
-        <v>4.67422040702125</v>
+        <v>11.66945695372176</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>53.74576556906384</v>
+        <v>24.45290259261912</v>
       </c>
       <c r="G20">
-        <v>2.012009933155029</v>
+        <v>2.046754911796426</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.361005831140314</v>
+        <v>9.302510304534369</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.88765477106712</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.3474163061479</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.28323355070773</v>
+        <v>31.68817638389583</v>
       </c>
       <c r="C21">
-        <v>29.29793744108541</v>
+        <v>22.8925884295856</v>
       </c>
       <c r="D21">
-        <v>4.868338388886951</v>
+        <v>12.29730938936366</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>57.0225398646751</v>
+        <v>25.46639522798159</v>
       </c>
       <c r="G21">
-        <v>1.991270824175198</v>
+        <v>2.038159568726596</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.803699054137399</v>
+        <v>9.700954870678268</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.55849215301581</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.65874179683717</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.93442816545768</v>
+        <v>32.84743709005</v>
       </c>
       <c r="C22">
-        <v>30.57722139851512</v>
+        <v>23.70001234256606</v>
       </c>
       <c r="D22">
-        <v>4.994259914489425</v>
+        <v>12.69633979950315</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>59.19078183624116</v>
+        <v>26.15270134729932</v>
       </c>
       <c r="G22">
-        <v>1.977503552979881</v>
+        <v>2.032593352886321</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.09952626070274</v>
+        <v>9.96067995878183</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.34929889365315</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.8950258073506</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.05532660670998</v>
+        <v>32.23307152980766</v>
       </c>
       <c r="C23">
-        <v>29.89594496430745</v>
+        <v>23.27207454160813</v>
       </c>
       <c r="D23">
-        <v>4.927134532041404</v>
+        <v>12.48440832094171</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>58.03060872336617</v>
+        <v>25.78422079141566</v>
       </c>
       <c r="G23">
-        <v>1.98487631899326</v>
+        <v>2.03556002776626</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.940974935988393</v>
+        <v>9.822128856016539</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.46034691444679</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.76583665962866</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.67200073515618</v>
+        <v>29.80980573315633</v>
       </c>
       <c r="C24">
-        <v>27.27753181214803</v>
+        <v>21.58501716967703</v>
       </c>
       <c r="D24">
-        <v>4.67103093162563</v>
+        <v>11.65900547523129</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>53.69256072316963</v>
+        <v>24.43674297267033</v>
       </c>
       <c r="G24">
-        <v>2.0123464191889</v>
+        <v>2.046896389262356</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.35386672303534</v>
+        <v>9.295988318788126</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.89312344684787</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.34286370570053</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.87401302602247</v>
+        <v>26.98495466329238</v>
       </c>
       <c r="C25">
-        <v>24.34322304606199</v>
+        <v>19.62123655104014</v>
       </c>
       <c r="D25">
-        <v>4.390574654291687</v>
+        <v>10.72098987245918</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>49.08950713780884</v>
+        <v>23.08684718787757</v>
       </c>
       <c r="G25">
-        <v>2.041524822571415</v>
+        <v>2.059398953908942</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.743297438225612</v>
+        <v>8.726585800042185</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.38095852381099</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.01883091720932</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.71861218648607</v>
+        <v>16.52233964717913</v>
       </c>
       <c r="C2">
-        <v>18.04933658049427</v>
+        <v>10.32468481425973</v>
       </c>
       <c r="D2">
-        <v>9.99099811180198</v>
+        <v>11.24921220768562</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.18293208678513</v>
+        <v>30.52285013937888</v>
       </c>
       <c r="G2">
-        <v>2.068896143079812</v>
+        <v>3.632351806462029</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.307375023654373</v>
+        <v>11.31980928077249</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.88279781451508</v>
+        <v>21.96016188730161</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.0640876117784</v>
+        <v>15.80019147163543</v>
       </c>
       <c r="C3">
-        <v>16.90476039819245</v>
+        <v>9.67976870335449</v>
       </c>
       <c r="D3">
-        <v>9.473216370802657</v>
+        <v>11.14507077160001</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.62677190836375</v>
+        <v>30.59970734668889</v>
       </c>
       <c r="G3">
-        <v>2.075539229566875</v>
+        <v>3.63477847272315</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.024474045432155</v>
+        <v>11.30181205426907</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.84812146755209</v>
+        <v>22.08706669769633</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.98898654687618</v>
+        <v>15.34005903821558</v>
       </c>
       <c r="C4">
-        <v>16.16278233734444</v>
+        <v>9.260058416481153</v>
       </c>
       <c r="D4">
-        <v>9.144640035919645</v>
+        <v>11.08233381936053</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.31304389160796</v>
+        <v>30.65804030734518</v>
       </c>
       <c r="G4">
-        <v>2.079727578957109</v>
+        <v>3.636345691123417</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.851849506034438</v>
+        <v>11.29310745820674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.852855216527</v>
+        <v>22.17252561077112</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.53588537760174</v>
+        <v>15.14858140521858</v>
       </c>
       <c r="C5">
-        <v>15.85056782713187</v>
+        <v>9.083088502094485</v>
       </c>
       <c r="D5">
-        <v>9.008199456930004</v>
+        <v>11.05709402216911</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.19213930131341</v>
+        <v>30.68459741780283</v>
       </c>
       <c r="G5">
-        <v>2.081462920787756</v>
+        <v>3.637003832085298</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.781856506767605</v>
+        <v>11.29015228783193</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.8609649085788</v>
+        <v>22.20923569260494</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.45974021796856</v>
+        <v>15.11655449873704</v>
       </c>
       <c r="C6">
-        <v>15.7981303235991</v>
+        <v>9.053345518279089</v>
       </c>
       <c r="D6">
-        <v>8.985394543066567</v>
+        <v>11.05292331497175</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.17248071574251</v>
+        <v>30.68917498051149</v>
       </c>
       <c r="G6">
-        <v>2.08175282664945</v>
+        <v>3.637114294759297</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.770258048163685</v>
+        <v>11.28969739481252</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.86267399002956</v>
+        <v>22.21544489880037</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.98293668159615</v>
+        <v>15.33749244036927</v>
       </c>
       <c r="C7">
-        <v>16.15861157432251</v>
+        <v>9.257695716303981</v>
       </c>
       <c r="D7">
-        <v>9.142810046582719</v>
+        <v>11.08199207706024</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.31138529570319</v>
+        <v>30.65838720764662</v>
       </c>
       <c r="G7">
-        <v>2.079750865444558</v>
+        <v>3.636354488055368</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.850904014334876</v>
+        <v>11.29306520415928</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.85294004939281</v>
+        <v>22.17301307835808</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.16036150962326</v>
+        <v>16.27694760059106</v>
       </c>
       <c r="C8">
-        <v>17.66282107841364</v>
+        <v>10.10725880828519</v>
       </c>
       <c r="D8">
-        <v>9.814752219598951</v>
+        <v>11.21306765095578</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.98539433131851</v>
+        <v>30.54702877652385</v>
       </c>
       <c r="G8">
-        <v>2.07116459800775</v>
+        <v>3.633172530122982</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.209654088309168</v>
+        <v>11.31311840184809</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.86522498232037</v>
+        <v>22.00234748418717</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.96514770605584</v>
+        <v>17.97763938485242</v>
       </c>
       <c r="C9">
-        <v>20.30218740512362</v>
+        <v>11.58405821616121</v>
       </c>
       <c r="D9">
-        <v>11.04322015284529</v>
+        <v>11.47865740996335</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.52764471183681</v>
+        <v>30.41771040200414</v>
       </c>
       <c r="G9">
-        <v>2.055145654382529</v>
+        <v>3.627542565576452</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.918517020200433</v>
+        <v>11.37094144348688</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.11125006636235</v>
+        <v>21.72797180334648</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.48389611263493</v>
+        <v>19.13098058073487</v>
       </c>
       <c r="C10">
-        <v>22.05414142814433</v>
+        <v>12.55306429647234</v>
       </c>
       <c r="D10">
-        <v>11.88683935329555</v>
+        <v>11.67760702754314</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.79436655047296</v>
+        <v>30.37777591062527</v>
       </c>
       <c r="G10">
-        <v>2.043800635083493</v>
+        <v>3.623773822278834</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.438999593314152</v>
+        <v>11.42452127869939</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.44679349076974</v>
+        <v>21.56380293553112</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.57128843230657</v>
+        <v>19.63319515857744</v>
       </c>
       <c r="C11">
-        <v>22.81119174954845</v>
+        <v>12.96867955290019</v>
       </c>
       <c r="D11">
-        <v>12.2572830289351</v>
+        <v>11.76864377228149</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.39932615001122</v>
+        <v>30.37170227292016</v>
       </c>
       <c r="G11">
-        <v>2.038713357814422</v>
+        <v>3.622138249645897</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.675173612594884</v>
+        <v>11.4512579114088</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.63668108110321</v>
+        <v>21.49738150681094</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.97479769356068</v>
+        <v>19.82003745840061</v>
       </c>
       <c r="C12">
-        <v>23.09219469592194</v>
+        <v>13.12244229500781</v>
       </c>
       <c r="D12">
-        <v>12.39562211650271</v>
+        <v>11.80316848569374</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.63251638381919</v>
+        <v>30.37114950296481</v>
       </c>
       <c r="G12">
-        <v>2.036795872500346</v>
+        <v>3.621530171187384</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.764491524483427</v>
+        <v>11.4617173464949</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.71420023199584</v>
+        <v>21.4734285363916</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.88825999954636</v>
+        <v>19.77994750248023</v>
       </c>
       <c r="C13">
-        <v>23.03192696519877</v>
+        <v>13.08948777207588</v>
       </c>
       <c r="D13">
-        <v>12.36591481212596</v>
+        <v>11.795731105952</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.58211233409429</v>
+        <v>30.37119073341061</v>
       </c>
       <c r="G13">
-        <v>2.037208466495551</v>
+        <v>3.621660631161038</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.745260823810561</v>
+        <v>11.45944991050603</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.69725168546612</v>
+        <v>21.47853371052271</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.60465017496134</v>
+        <v>19.6486341897678</v>
       </c>
       <c r="C14">
-        <v>22.83442337025664</v>
+        <v>12.98140227655629</v>
       </c>
       <c r="D14">
-        <v>12.26870322914438</v>
+        <v>11.77148326394457</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.4184286615279</v>
+        <v>30.37162173924854</v>
       </c>
       <c r="G14">
-        <v>2.038555435515974</v>
+        <v>3.62208799699629</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.682524305732622</v>
+        <v>11.45211173428005</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.64294477194354</v>
+        <v>21.49538677796692</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.42985907700501</v>
+        <v>19.56776372031597</v>
       </c>
       <c r="C15">
-        <v>22.71270968774668</v>
+        <v>12.91472520494614</v>
       </c>
       <c r="D15">
-        <v>12.20890525150821</v>
+        <v>11.75663665348463</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.31870183386605</v>
+        <v>30.37211349157937</v>
       </c>
       <c r="G15">
-        <v>2.039381608385139</v>
+        <v>3.622351237762153</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.644080577501299</v>
+        <v>11.44766034333685</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.61041829655217</v>
+        <v>21.50586630633539</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.41166870026294</v>
+        <v>19.09769838723893</v>
       </c>
       <c r="C16">
-        <v>22.00386842149112</v>
+        <v>12.52539594491199</v>
       </c>
       <c r="D16">
-        <v>11.8623594744912</v>
+        <v>11.67166610258714</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.75540649439215</v>
+        <v>30.37841692234452</v>
       </c>
       <c r="G16">
-        <v>2.04413444601204</v>
+        <v>3.623882292206973</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.423550189606832</v>
+        <v>11.42282111315247</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.43515601892108</v>
+        <v>21.56831093807503</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.77217818254382</v>
+        <v>18.80349715113559</v>
       </c>
       <c r="C17">
-        <v>21.55883549262669</v>
+        <v>12.2801025654173</v>
       </c>
       <c r="D17">
-        <v>11.64633030828599</v>
+        <v>11.61965778549611</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.41717715887217</v>
+        <v>30.38538757603535</v>
       </c>
       <c r="G17">
-        <v>2.047067899810525</v>
+        <v>3.624841695906426</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.288083707310561</v>
+        <v>11.40818487864261</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.33737025137973</v>
+        <v>21.60874255155012</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.39885482618376</v>
+        <v>18.63217286722926</v>
       </c>
       <c r="C18">
-        <v>21.29910211219956</v>
+        <v>12.13664498526302</v>
       </c>
       <c r="D18">
-        <v>11.52082240403978</v>
+        <v>11.58979572817546</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.22534090187951</v>
+        <v>30.3905347597325</v>
       </c>
       <c r="G18">
-        <v>2.048762180966553</v>
+        <v>3.625400944656739</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.210111903821797</v>
+        <v>11.39998923430985</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.28461889677613</v>
+        <v>21.63277451074422</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.27150441833696</v>
+        <v>18.57380701748851</v>
       </c>
       <c r="C19">
-        <v>21.21051286162706</v>
+        <v>12.08766547227382</v>
       </c>
       <c r="D19">
-        <v>11.47811326571126</v>
+        <v>11.57969462094951</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.16085390427652</v>
+        <v>30.39247265266878</v>
       </c>
       <c r="G19">
-        <v>2.049337091313229</v>
+        <v>3.625591573804565</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.183703662912947</v>
+        <v>11.39725272708141</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.26734971490469</v>
+        <v>21.64104437272469</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.84082186622522</v>
+        <v>18.83503433126049</v>
       </c>
       <c r="C20">
-        <v>21.60659894044463</v>
+        <v>12.30645989222051</v>
       </c>
       <c r="D20">
-        <v>11.66945695372176</v>
+        <v>11.62518898991305</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.45290259261912</v>
+        <v>30.38452770932035</v>
       </c>
       <c r="G20">
-        <v>2.046754911796426</v>
+        <v>3.624738797713922</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.302510304534369</v>
+        <v>11.40971991330997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.3474163061479</v>
+        <v>21.60435806031028</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.68817638389583</v>
+        <v>19.68729538839813</v>
       </c>
       <c r="C21">
-        <v>22.8925884295856</v>
+        <v>13.01324787903703</v>
       </c>
       <c r="D21">
-        <v>12.29730938936366</v>
+        <v>11.77860426035357</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.46639522798159</v>
+        <v>30.37144766758242</v>
       </c>
       <c r="G21">
-        <v>2.038159568726596</v>
+        <v>3.621962163708504</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.700954870678268</v>
+        <v>11.45425808817818</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.65874179683717</v>
+        <v>21.49040398060825</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.84743709005</v>
+        <v>20.22481750655732</v>
       </c>
       <c r="C22">
-        <v>23.70001234256606</v>
+        <v>13.45406680242445</v>
       </c>
       <c r="D22">
-        <v>12.69633979950315</v>
+        <v>11.87915595555401</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.15270134729932</v>
+        <v>30.3730855561293</v>
       </c>
       <c r="G22">
-        <v>2.032593352886321</v>
+        <v>3.620213178252928</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.96067995878183</v>
+        <v>11.48531554384533</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.8950258073506</v>
+        <v>21.42292461740752</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.23307152980766</v>
+        <v>19.93974542029292</v>
       </c>
       <c r="C23">
-        <v>23.27207454160813</v>
+        <v>13.22072383515241</v>
       </c>
       <c r="D23">
-        <v>12.48440832094171</v>
+        <v>11.8254718830772</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.78422079141566</v>
+        <v>30.37127707230546</v>
       </c>
       <c r="G23">
-        <v>2.03556002776626</v>
+        <v>3.621140652646739</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.822128856016539</v>
+        <v>11.46856298598613</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.76583665962866</v>
+        <v>21.45829566369592</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.80980573315633</v>
+        <v>18.82078316668695</v>
       </c>
       <c r="C24">
-        <v>21.58501716967703</v>
+        <v>12.29455132983632</v>
       </c>
       <c r="D24">
-        <v>11.65900547523129</v>
+        <v>11.62268821141127</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.43674297267033</v>
+        <v>30.38491290563839</v>
       </c>
       <c r="G24">
-        <v>2.046896389262356</v>
+        <v>3.624785294075508</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.295988318788126</v>
+        <v>11.40902524185283</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.34286370570053</v>
+        <v>21.60633783723695</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.98495466329238</v>
+        <v>17.53383044556278</v>
       </c>
       <c r="C25">
-        <v>19.62123655104014</v>
+        <v>11.20489182091859</v>
       </c>
       <c r="D25">
-        <v>10.72098987245918</v>
+        <v>11.40603557097633</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.08684718787757</v>
+        <v>30.44307315907495</v>
       </c>
       <c r="G25">
-        <v>2.059398953908942</v>
+        <v>3.629000766180936</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.726585800042185</v>
+        <v>11.35333509318817</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.01883091720932</v>
+        <v>21.79567437103117</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.52233964717913</v>
+        <v>24.71861218648607</v>
       </c>
       <c r="C2">
-        <v>10.32468481425973</v>
+        <v>18.04933658049432</v>
       </c>
       <c r="D2">
-        <v>11.24921220768562</v>
+        <v>9.990998111802101</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.52285013937888</v>
+        <v>22.18293208678505</v>
       </c>
       <c r="G2">
-        <v>3.632351806462029</v>
+        <v>2.068896143079678</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.31980928077249</v>
+        <v>8.307375023654435</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.96016188730161</v>
+        <v>13.88279781451491</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.80019147163543</v>
+        <v>23.06408761177839</v>
       </c>
       <c r="C3">
-        <v>9.67976870335449</v>
+        <v>16.90476039819239</v>
       </c>
       <c r="D3">
-        <v>11.14507077160001</v>
+        <v>9.473216370802628</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.59970734668889</v>
+        <v>21.62677190836378</v>
       </c>
       <c r="G3">
-        <v>3.63477847272315</v>
+        <v>2.075539229566739</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.30181205426907</v>
+        <v>8.024474045432163</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.08706669769633</v>
+        <v>13.84812146755214</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.34005903821558</v>
+        <v>21.98898654687622</v>
       </c>
       <c r="C4">
-        <v>9.260058416481153</v>
+        <v>16.16278233734452</v>
       </c>
       <c r="D4">
-        <v>11.08233381936053</v>
+        <v>9.144640035919666</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.65804030734518</v>
+        <v>21.31304389160781</v>
       </c>
       <c r="G4">
-        <v>3.636345691123417</v>
+        <v>2.079727578957378</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.29310745820674</v>
+        <v>7.851849506034342</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.17252561077112</v>
+        <v>13.8528552165269</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.14858140521858</v>
+        <v>21.53588537760172</v>
       </c>
       <c r="C5">
-        <v>9.083088502094485</v>
+        <v>15.85056782713192</v>
       </c>
       <c r="D5">
-        <v>11.05709402216911</v>
+        <v>9.008199456929956</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.68459741780283</v>
+        <v>21.19213930131334</v>
       </c>
       <c r="G5">
-        <v>3.637003832085298</v>
+        <v>2.081462920787891</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.29015228783193</v>
+        <v>7.781856506767578</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.20923569260494</v>
+        <v>13.86096490857878</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.11655449873704</v>
+        <v>21.45974021796854</v>
       </c>
       <c r="C6">
-        <v>9.053345518279089</v>
+        <v>15.798130323599</v>
       </c>
       <c r="D6">
-        <v>11.05292331497175</v>
+        <v>8.985394543066578</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.68917498051149</v>
+        <v>21.17248071574265</v>
       </c>
       <c r="G6">
-        <v>3.637114294759297</v>
+        <v>2.081752826649316</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.28969739481252</v>
+        <v>7.770258048163684</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.21544489880037</v>
+        <v>13.86267399002967</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.33749244036927</v>
+        <v>21.98293668159616</v>
       </c>
       <c r="C7">
-        <v>9.257695716303981</v>
+        <v>16.15861157432247</v>
       </c>
       <c r="D7">
-        <v>11.08199207706024</v>
+        <v>9.142810046582724</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.65838720764662</v>
+        <v>21.31138529570319</v>
       </c>
       <c r="G7">
-        <v>3.636354488055368</v>
+        <v>2.079750865444422</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.29306520415928</v>
+        <v>7.850904014334871</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.17301307835808</v>
+        <v>13.85294004939281</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.27694760059106</v>
+        <v>24.16036150962327</v>
       </c>
       <c r="C8">
-        <v>10.10725880828519</v>
+        <v>17.66282107841371</v>
       </c>
       <c r="D8">
-        <v>11.21306765095578</v>
+        <v>9.814752219598976</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.54702877652385</v>
+        <v>21.98539433131856</v>
       </c>
       <c r="G8">
-        <v>3.633172530122982</v>
+        <v>2.071164598007751</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.31311840184809</v>
+        <v>8.209654088309172</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.00234748418717</v>
+        <v>13.86522498232042</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.97763938485242</v>
+        <v>27.96514770605584</v>
       </c>
       <c r="C9">
-        <v>11.58405821616121</v>
+        <v>20.30218740512362</v>
       </c>
       <c r="D9">
-        <v>11.47865740996335</v>
+        <v>11.04322015284527</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.41771040200414</v>
+        <v>23.52764471183683</v>
       </c>
       <c r="G9">
-        <v>3.627542565576452</v>
+        <v>2.05514565438253</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.37094144348688</v>
+        <v>8.918517020200447</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.72797180334648</v>
+        <v>14.11125006636235</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.13098058073487</v>
+        <v>30.48389611263491</v>
       </c>
       <c r="C10">
-        <v>12.55306429647234</v>
+        <v>22.05414142814437</v>
       </c>
       <c r="D10">
-        <v>11.67760702754314</v>
+        <v>11.88683935329551</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.37777591062527</v>
+        <v>24.7943665504729</v>
       </c>
       <c r="G10">
-        <v>3.623773822278834</v>
+        <v>2.043800635083361</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.42452127869939</v>
+        <v>9.438999593314135</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.56380293553112</v>
+        <v>14.44679349076971</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.63319515857744</v>
+        <v>31.57128843230657</v>
       </c>
       <c r="C11">
-        <v>12.96867955290019</v>
+        <v>22.81119174954837</v>
       </c>
       <c r="D11">
-        <v>11.76864377228149</v>
+        <v>12.25728302893512</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.37170227292016</v>
+        <v>25.39932615001124</v>
       </c>
       <c r="G11">
-        <v>3.622138249645897</v>
+        <v>2.038713357814691</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.4512579114088</v>
+        <v>9.675173612594877</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.49738150681094</v>
+        <v>14.6366810811032</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.82003745840061</v>
+        <v>31.97479769356066</v>
       </c>
       <c r="C12">
-        <v>13.12244229500781</v>
+        <v>23.09219469592194</v>
       </c>
       <c r="D12">
-        <v>11.80316848569374</v>
+        <v>12.39562211650276</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.37114950296481</v>
+        <v>25.63251638381919</v>
       </c>
       <c r="G12">
-        <v>3.621530171187384</v>
+        <v>2.03679587250048</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.4617173464949</v>
+        <v>9.764491524483439</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.4734285363916</v>
+        <v>14.71420023199588</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.77994750248023</v>
+        <v>31.88825999954635</v>
       </c>
       <c r="C13">
-        <v>13.08948777207588</v>
+        <v>23.03192696519878</v>
       </c>
       <c r="D13">
-        <v>11.795731105952</v>
+        <v>12.3659148121259</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.37119073341061</v>
+        <v>25.58211233409423</v>
       </c>
       <c r="G13">
-        <v>3.621660631161038</v>
+        <v>2.037208466495684</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.45944991050603</v>
+        <v>9.745260823810566</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.47853371052271</v>
+        <v>14.69725168546612</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.6486341897678</v>
+        <v>31.60465017496138</v>
       </c>
       <c r="C14">
-        <v>12.98140227655629</v>
+        <v>22.83442337025662</v>
       </c>
       <c r="D14">
-        <v>11.77148326394457</v>
+        <v>12.2687032291444</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.37162173924854</v>
+        <v>25.41842866152789</v>
       </c>
       <c r="G14">
-        <v>3.62208799699629</v>
+        <v>2.038555435515842</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.45211173428005</v>
+        <v>9.682524305732617</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.49538677796692</v>
+        <v>14.64294477194351</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.56776372031597</v>
+        <v>31.42985907700497</v>
       </c>
       <c r="C15">
-        <v>12.91472520494614</v>
+        <v>22.71270968774675</v>
       </c>
       <c r="D15">
-        <v>11.75663665348463</v>
+        <v>12.20890525150824</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.37211349157937</v>
+        <v>25.31870183386612</v>
       </c>
       <c r="G15">
-        <v>3.622351237762153</v>
+        <v>2.03938160838514</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.44766034333685</v>
+        <v>9.644080577501304</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.50586630633539</v>
+        <v>14.61041829655221</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.09769838723893</v>
+        <v>30.41166870026294</v>
       </c>
       <c r="C16">
-        <v>12.52539594491199</v>
+        <v>22.00386842149106</v>
       </c>
       <c r="D16">
-        <v>11.67166610258714</v>
+        <v>11.86235947449123</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.37841692234452</v>
+        <v>24.75540649439224</v>
       </c>
       <c r="G16">
-        <v>3.623882292206973</v>
+        <v>2.04413444601204</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.42282111315247</v>
+        <v>9.423550189606839</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.56831093807503</v>
+        <v>14.43515601892114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.80349715113559</v>
+        <v>29.7721781825438</v>
       </c>
       <c r="C17">
-        <v>12.2801025654173</v>
+        <v>21.55883549262661</v>
       </c>
       <c r="D17">
-        <v>11.61965778549611</v>
+        <v>11.64633030828596</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.38538757603535</v>
+        <v>24.41717715887222</v>
       </c>
       <c r="G17">
-        <v>3.624841695906426</v>
+        <v>2.047067899810256</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.40818487864261</v>
+        <v>9.288083707310566</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.60874255155012</v>
+        <v>14.33737025137982</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.63217286722926</v>
+        <v>29.39885482618375</v>
       </c>
       <c r="C18">
-        <v>12.13664498526302</v>
+        <v>21.29910211219954</v>
       </c>
       <c r="D18">
-        <v>11.58979572817546</v>
+        <v>11.52082240403979</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.3905347597325</v>
+        <v>24.22534090187956</v>
       </c>
       <c r="G18">
-        <v>3.625400944656739</v>
+        <v>2.048762180966419</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.39998923430985</v>
+        <v>9.210111903821803</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.63277451074422</v>
+        <v>14.28461889677616</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.57380701748851</v>
+        <v>29.27150441833694</v>
       </c>
       <c r="C19">
-        <v>12.08766547227382</v>
+        <v>21.21051286162713</v>
       </c>
       <c r="D19">
-        <v>11.57969462094951</v>
+        <v>11.47811326571132</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.39247265266878</v>
+        <v>24.1608539042765</v>
       </c>
       <c r="G19">
-        <v>3.625591573804565</v>
+        <v>2.049337091313494</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.39725272708141</v>
+        <v>9.183703662912917</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.64104437272469</v>
+        <v>14.26734971490467</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.83503433126049</v>
+        <v>29.8408218662252</v>
       </c>
       <c r="C20">
-        <v>12.30645989222051</v>
+        <v>21.60659894044468</v>
       </c>
       <c r="D20">
-        <v>11.62518898991305</v>
+        <v>11.66945695372181</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.38452770932035</v>
+        <v>24.45290259261906</v>
       </c>
       <c r="G20">
-        <v>3.624738797713922</v>
+        <v>2.046754911796293</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.40971991330997</v>
+        <v>9.302510304534421</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.60435806031028</v>
+        <v>14.34741630614779</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.68729538839813</v>
+        <v>31.68817638389584</v>
       </c>
       <c r="C21">
-        <v>13.01324787903703</v>
+        <v>22.89258842958557</v>
       </c>
       <c r="D21">
-        <v>11.77860426035357</v>
+        <v>12.29730938936366</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.37144766758242</v>
+        <v>25.46639522798155</v>
       </c>
       <c r="G21">
-        <v>3.621962163708504</v>
+        <v>2.038159568726464</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.45425808817818</v>
+        <v>9.700954870678247</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.49040398060825</v>
+        <v>14.65874179683714</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.22481750655732</v>
+        <v>32.84743709005001</v>
       </c>
       <c r="C22">
-        <v>13.45406680242445</v>
+        <v>23.70001234256606</v>
       </c>
       <c r="D22">
-        <v>11.87915595555401</v>
+        <v>12.69633979950317</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.3730855561293</v>
+        <v>26.15270134729931</v>
       </c>
       <c r="G22">
-        <v>3.620213178252928</v>
+        <v>2.032593352886319</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.48531554384533</v>
+        <v>9.960679958781835</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.42292461740752</v>
+        <v>14.89502580735059</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.93974542029292</v>
+        <v>32.23307152980765</v>
       </c>
       <c r="C23">
-        <v>13.22072383515241</v>
+        <v>23.27207454160812</v>
       </c>
       <c r="D23">
-        <v>11.8254718830772</v>
+        <v>12.48440832094169</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.37127707230546</v>
+        <v>25.78422079141566</v>
       </c>
       <c r="G23">
-        <v>3.621140652646739</v>
+        <v>2.035560027766127</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.46856298598613</v>
+        <v>9.822128856016581</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.45829566369592</v>
+        <v>14.76583665962869</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.82078316668695</v>
+        <v>29.8098057331563</v>
       </c>
       <c r="C24">
-        <v>12.29455132983632</v>
+        <v>21.58501716967712</v>
       </c>
       <c r="D24">
-        <v>11.62268821141127</v>
+        <v>11.6590054752313</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.38491290563839</v>
+        <v>24.43674297267029</v>
       </c>
       <c r="G24">
-        <v>3.624785294075508</v>
+        <v>2.046896389262224</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.40902524185283</v>
+        <v>9.295988318788122</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.60633783723695</v>
+        <v>14.34286370570051</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.53383044556278</v>
+        <v>26.98495466329241</v>
       </c>
       <c r="C25">
-        <v>11.20489182091859</v>
+        <v>19.62123655104014</v>
       </c>
       <c r="D25">
-        <v>11.40603557097633</v>
+        <v>10.72098987245922</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.44307315907495</v>
+        <v>23.08684718787744</v>
       </c>
       <c r="G25">
-        <v>3.629000766180936</v>
+        <v>2.059398953909076</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.35333509318817</v>
+        <v>8.7265858000422</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.79567437103117</v>
+        <v>14.01883091720916</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.71861218648607</v>
+        <v>22.0325598602124</v>
       </c>
       <c r="C2">
-        <v>18.04933658049432</v>
+        <v>18.2884588718677</v>
       </c>
       <c r="D2">
-        <v>9.990998111802101</v>
+        <v>8.90308874637468</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.18293208678505</v>
+        <v>30.26675703485574</v>
       </c>
       <c r="G2">
-        <v>2.068896143079678</v>
+        <v>35.81663259164898</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.984325656363759</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.027171274166869</v>
       </c>
       <c r="J2">
-        <v>8.307375023654435</v>
+        <v>11.29127348847834</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.56696063383028</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.578897493998818</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.88279781451491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.91640559593092</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.06408761177839</v>
+        <v>20.55096309618074</v>
       </c>
       <c r="C3">
-        <v>16.90476039819239</v>
+        <v>17.06341589178176</v>
       </c>
       <c r="D3">
-        <v>9.473216370802628</v>
+        <v>8.462581424024036</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.62677190836378</v>
+        <v>29.06910309590848</v>
       </c>
       <c r="G3">
-        <v>2.075539229566739</v>
+        <v>34.20650707687262</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.705069149939575</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.829693335087894</v>
       </c>
       <c r="J3">
-        <v>8.024474045432163</v>
+        <v>11.07802963031144</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.42576605968188</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.174660001473077</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.84812146755214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.04672349808014</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.98898654687622</v>
+        <v>19.583469474736</v>
       </c>
       <c r="C4">
-        <v>16.16278233734452</v>
+        <v>16.27089787541301</v>
       </c>
       <c r="D4">
-        <v>9.144640035919666</v>
+        <v>8.181517624495127</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.31304389160781</v>
+        <v>28.31736626979988</v>
       </c>
       <c r="G4">
-        <v>2.079727578957378</v>
+        <v>33.19330700024341</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.594311964819392</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.705254772952846</v>
       </c>
       <c r="J4">
-        <v>7.851849506034342</v>
+        <v>10.94887318898661</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.34343238372928</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.916882297682697</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.8528552165269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.12875193301088</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.53588537760172</v>
+        <v>19.16790136876932</v>
       </c>
       <c r="C5">
-        <v>15.85056782713192</v>
+        <v>15.9457935912225</v>
       </c>
       <c r="D5">
-        <v>9.008199456929956</v>
+        <v>8.066959777568146</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.19213930131334</v>
+        <v>27.99645859841259</v>
       </c>
       <c r="G5">
-        <v>2.081462920787891</v>
+        <v>32.75490643306301</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.670255058108252</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.654206962336478</v>
       </c>
       <c r="J5">
-        <v>7.781856506767578</v>
+        <v>10.89294635310914</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.30303244614141</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.809295617685795</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.86096490857878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.1631479253916</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.45974021796854</v>
+        <v>19.08983296942724</v>
       </c>
       <c r="C6">
-        <v>15.798130323599</v>
+        <v>15.90103247401765</v>
       </c>
       <c r="D6">
-        <v>8.985394543066578</v>
+        <v>8.050921159414848</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.17248071574265</v>
+        <v>27.92973135027894</v>
       </c>
       <c r="G6">
-        <v>2.081752826649316</v>
+        <v>32.6575267270136</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.683299393001109</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.646475224273587</v>
       </c>
       <c r="J6">
-        <v>7.770258048163684</v>
+        <v>10.87907873175723</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.28671780442071</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.791054491205191</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.86267399002967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.16946374474274</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.98293668159616</v>
+        <v>19.55613097666181</v>
       </c>
       <c r="C7">
-        <v>16.15861157432247</v>
+        <v>16.29275451029902</v>
       </c>
       <c r="D7">
-        <v>9.142810046582724</v>
+        <v>8.188399975559593</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.31138529570319</v>
+        <v>28.27742184426008</v>
       </c>
       <c r="G7">
-        <v>2.079750865444422</v>
+        <v>33.12218380707867</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.596242092151809</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.706330320932069</v>
       </c>
       <c r="J7">
-        <v>7.850904014334871</v>
+        <v>10.93560299996233</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.31654532544817</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.914807515028974</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.85294004939281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.13086444551321</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.16036150962327</v>
+        <v>21.50705457367175</v>
       </c>
       <c r="C8">
-        <v>17.66282107841371</v>
+        <v>17.90628192505228</v>
       </c>
       <c r="D8">
-        <v>9.814752219598976</v>
+        <v>8.763925088133178</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.98539433131856</v>
+        <v>29.81248408038285</v>
       </c>
       <c r="G8">
-        <v>2.071164598007751</v>
+        <v>35.18511350820188</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.888131433227549</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.961368009717313</v>
       </c>
       <c r="J8">
-        <v>8.209654088309172</v>
+        <v>11.20121900555345</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.4828969128965</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.440755537695592</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.86522498232042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.96348712653896</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.96514770605584</v>
+        <v>24.91277585425589</v>
       </c>
       <c r="C9">
-        <v>20.30218740512362</v>
+        <v>20.71144019607192</v>
       </c>
       <c r="D9">
-        <v>11.04322015284527</v>
+        <v>9.792032060138263</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.52764471183683</v>
+        <v>32.73898191102372</v>
       </c>
       <c r="G9">
-        <v>2.05514565438253</v>
+        <v>39.12565661884663</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.554262633931778</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.435569228067793</v>
       </c>
       <c r="J9">
-        <v>8.918517020200447</v>
+        <v>11.75671644172189</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.89179964473521</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.39505668907469</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.11125006636235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.64759636228412</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.48389611263491</v>
+        <v>27.07576479979177</v>
       </c>
       <c r="C10">
-        <v>22.05414142814437</v>
+        <v>22.50840534140153</v>
       </c>
       <c r="D10">
-        <v>11.88683935329551</v>
+        <v>10.36051628550604</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.7943665504729</v>
+        <v>34.51196732016497</v>
       </c>
       <c r="G10">
-        <v>2.043800635083361</v>
+        <v>41.56961637185739</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.994889860541547</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.763385675237353</v>
       </c>
       <c r="J10">
-        <v>9.438999593314135</v>
+        <v>12.10870971556506</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.12292664543723</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.86738174637163</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.44679349076971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.43857541617241</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.57128843230657</v>
+        <v>27.47585529268311</v>
       </c>
       <c r="C11">
-        <v>22.81119174954837</v>
+        <v>22.59650930410728</v>
       </c>
       <c r="D11">
-        <v>12.25728302893512</v>
+        <v>9.473067739688116</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.39932615001124</v>
+        <v>33.01145891808389</v>
       </c>
       <c r="G11">
-        <v>2.038713357814691</v>
+        <v>40.19901946858916</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.621620775456308</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.846840152309947</v>
       </c>
       <c r="J11">
-        <v>9.675173612594877</v>
+        <v>11.75929612089351</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.49206105634663</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.591276913975232</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.6366810811032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.47075044500212</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.97479769356066</v>
+        <v>27.39773057232491</v>
       </c>
       <c r="C12">
-        <v>23.09219469592194</v>
+        <v>22.2714895098266</v>
       </c>
       <c r="D12">
-        <v>12.39562211650276</v>
+        <v>8.60609867977197</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.63251638381919</v>
+        <v>31.39427731042951</v>
       </c>
       <c r="G12">
-        <v>2.03679587250048</v>
+        <v>38.58705139741269</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.660954392880091</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.850623394717562</v>
       </c>
       <c r="J12">
-        <v>9.764491524483439</v>
+        <v>11.39995971943478</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.94220245914579</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.505465478541332</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.71420023199588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.55348775384377</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.88825999954635</v>
+        <v>26.9202851970552</v>
       </c>
       <c r="C13">
-        <v>23.03192696519878</v>
+        <v>21.62926821677262</v>
       </c>
       <c r="D13">
-        <v>12.3659148121259</v>
+        <v>7.697981656666553</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.58211233409423</v>
+        <v>29.50604580258189</v>
       </c>
       <c r="G13">
-        <v>2.037208466495684</v>
+        <v>36.56173671372218</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.839188438285437</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.795648762886255</v>
       </c>
       <c r="J13">
-        <v>9.745260823810566</v>
+        <v>10.98861424712308</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.37929117320826</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.520411149561743</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.69725168546612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.67813149526435</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.60465017496138</v>
+        <v>26.39400546165916</v>
       </c>
       <c r="C14">
-        <v>22.83442337025662</v>
+        <v>21.03356338972981</v>
       </c>
       <c r="D14">
-        <v>12.2687032291444</v>
+        <v>7.045956026089459</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.41842866152789</v>
+        <v>28.03644288349402</v>
       </c>
       <c r="G14">
-        <v>2.038555435515842</v>
+        <v>34.91780800973402</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.715305217592007</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.731710884817828</v>
       </c>
       <c r="J14">
-        <v>9.682524305732617</v>
+        <v>10.67273350914252</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.97426560684742</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.922348576035612</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.64294477194351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.78498111238728</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.42985907700497</v>
+        <v>26.17159235805517</v>
       </c>
       <c r="C15">
-        <v>22.71270968774675</v>
+        <v>20.82579519691329</v>
       </c>
       <c r="D15">
-        <v>12.20890525150824</v>
+        <v>6.87796609810512</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.31870183386612</v>
+        <v>27.60943495322369</v>
       </c>
       <c r="G15">
-        <v>2.03938160838514</v>
+        <v>34.40638602836157</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.914264725067835</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.703959908281688</v>
       </c>
       <c r="J15">
-        <v>9.644080577501304</v>
+        <v>10.58145709986999</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.86553494830209</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.787517423961879</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.61041829655221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.81912484124576</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.41166870026294</v>
+        <v>25.3378213670365</v>
       </c>
       <c r="C16">
-        <v>22.00386842149106</v>
+        <v>20.18135637559753</v>
       </c>
       <c r="D16">
-        <v>11.86235947449123</v>
+        <v>6.774128046451673</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.75540649439224</v>
+        <v>27.12885279325298</v>
       </c>
       <c r="G16">
-        <v>2.04413444601204</v>
+        <v>33.62138922736583</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.627216203022511</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.577733265703831</v>
       </c>
       <c r="J16">
-        <v>9.423550189606839</v>
+        <v>10.49649907854927</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.85947886815123</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.740948344061468</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.43515601892114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.87030941323433</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.7721781825438</v>
+        <v>24.97756448468093</v>
       </c>
       <c r="C17">
-        <v>21.55883549262661</v>
+        <v>20.01132727874816</v>
       </c>
       <c r="D17">
-        <v>11.64633030828596</v>
+        <v>7.0486403370265</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.41717715887222</v>
+        <v>27.56560429779078</v>
       </c>
       <c r="G17">
-        <v>2.047067899810256</v>
+        <v>33.92595728625322</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.88806670765206</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.514486092904233</v>
       </c>
       <c r="J17">
-        <v>9.288083707310566</v>
+        <v>10.60216399562792</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.07031894664973</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.005145858929226</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.33737025137982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.85493268031608</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.39885482618375</v>
+        <v>25.01272458282536</v>
       </c>
       <c r="C18">
-        <v>21.29910211219954</v>
+        <v>20.22417202992604</v>
       </c>
       <c r="D18">
-        <v>11.52082240403979</v>
+        <v>7.698005253702224</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.22534090187956</v>
+        <v>28.86405693637542</v>
       </c>
       <c r="G18">
-        <v>2.048762180966419</v>
+        <v>35.24619286486402</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.728887759157181</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.498181083676598</v>
       </c>
       <c r="J18">
-        <v>9.210111903821803</v>
+        <v>10.8906199827542</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.51023856619807</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.682444953013724</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.28461889677616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.78301141132651</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.27150441833694</v>
+        <v>25.33161426246888</v>
       </c>
       <c r="C19">
-        <v>21.21051286162713</v>
+        <v>20.76620344446997</v>
       </c>
       <c r="D19">
-        <v>11.47811326571132</v>
+        <v>8.629631122829807</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.1608539042765</v>
+        <v>30.68687525566926</v>
       </c>
       <c r="G19">
-        <v>2.049337091313494</v>
+        <v>37.15778553440041</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.51294949639064</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.529494160642434</v>
       </c>
       <c r="J19">
-        <v>9.183703662912917</v>
+        <v>11.28163295105558</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.06109398963721</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.759144459195063</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.26734971490467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.6868005586775</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.8408218662252</v>
+        <v>26.47031062887791</v>
       </c>
       <c r="C20">
-        <v>21.60659894044468</v>
+        <v>22.10679737530764</v>
       </c>
       <c r="D20">
-        <v>11.66945695372181</v>
+        <v>10.22928066083264</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.45290259261906</v>
+        <v>33.94730288510854</v>
       </c>
       <c r="G20">
-        <v>2.046754911796293</v>
+        <v>40.75690305819053</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.876299471454385</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.683117377309642</v>
       </c>
       <c r="J20">
-        <v>9.302510304534421</v>
+        <v>11.97772418268565</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.97894996637063</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.73595709197246</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.34741630614779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.50141459862347</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.68817638389584</v>
+        <v>28.15135280354128</v>
       </c>
       <c r="C21">
-        <v>22.89258842958557</v>
+        <v>23.5415320016917</v>
       </c>
       <c r="D21">
-        <v>12.29730938936366</v>
+        <v>10.85193395544198</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.46639522798155</v>
+        <v>35.70030494561989</v>
       </c>
       <c r="G21">
-        <v>2.038159568726464</v>
+        <v>43.05366988554834</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.243221541857862</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.941721392158473</v>
       </c>
       <c r="J21">
-        <v>9.700954870678247</v>
+        <v>12.34613968602971</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.30827330107196</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.360919175931</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.65874179683714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.32455615919088</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.84743709005001</v>
+        <v>29.19137398959999</v>
       </c>
       <c r="C22">
-        <v>23.70001234256606</v>
+        <v>24.37906502503423</v>
       </c>
       <c r="D22">
-        <v>12.69633979950317</v>
+        <v>11.17057141915017</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.15270134729931</v>
+        <v>36.72674192556145</v>
       </c>
       <c r="G22">
-        <v>2.032593352886319</v>
+        <v>44.44631631934065</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.467758088170107</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.102868787180037</v>
       </c>
       <c r="J22">
-        <v>9.960679958781835</v>
+        <v>12.57272660524144</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.5186278354755</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.66841533294984</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.89502580735059</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.2130772455467</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.23307152980765</v>
+        <v>28.65926229344858</v>
       </c>
       <c r="C23">
-        <v>23.27207454160812</v>
+        <v>23.91306070205991</v>
       </c>
       <c r="D23">
-        <v>12.48440832094169</v>
+        <v>10.99381155762825</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.78422079141566</v>
+        <v>36.2145371678455</v>
       </c>
       <c r="G23">
-        <v>2.035560027766127</v>
+        <v>43.76576424703771</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.349169615716199</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.015079966602173</v>
       </c>
       <c r="J23">
-        <v>9.822128856016581</v>
+        <v>12.46477796765879</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.43484339812774</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.50572982547384</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.76583665962869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.26905663079744</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.8098057331563</v>
+        <v>26.5196996441383</v>
       </c>
       <c r="C24">
-        <v>21.58501716967712</v>
+        <v>22.11465292293427</v>
       </c>
       <c r="D24">
-        <v>11.6590054752313</v>
+        <v>10.31489295139199</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.43674297267029</v>
+        <v>34.18066939086133</v>
       </c>
       <c r="G24">
-        <v>2.046896389262224</v>
+        <v>41.03690003259906</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.890576664166549</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.681378764297109</v>
       </c>
       <c r="J24">
-        <v>9.295988318788122</v>
+        <v>12.03765142922405</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.08336802495686</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.86990830643837</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.34286370570051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.49009170870777</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.98495466329241</v>
+        <v>24.00679151083292</v>
       </c>
       <c r="C25">
-        <v>19.62123655104014</v>
+        <v>20.02528352525652</v>
       </c>
       <c r="D25">
-        <v>10.72098987245922</v>
+        <v>9.536707200479146</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.08684718787744</v>
+        <v>31.90701241304798</v>
       </c>
       <c r="G25">
-        <v>2.059398953909076</v>
+        <v>37.98127303075421</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.377314821769246</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.312447861387185</v>
       </c>
       <c r="J25">
-        <v>8.7265858000422</v>
+        <v>11.58389596816095</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.73092595110671</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.1445330008168</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.01883091720916</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.73553417872524</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.0325598602124</v>
+        <v>21.49558122912663</v>
       </c>
       <c r="C2">
-        <v>18.2884588718677</v>
+        <v>18.87973008742755</v>
       </c>
       <c r="D2">
-        <v>8.90308874637468</v>
+        <v>9.125052685960091</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.26675703485574</v>
+        <v>29.32388129651687</v>
       </c>
       <c r="G2">
-        <v>35.81663259164898</v>
+        <v>33.6073464975412</v>
       </c>
       <c r="H2">
-        <v>1.984325656363759</v>
+        <v>1.962219641591514</v>
       </c>
       <c r="I2">
-        <v>3.027171274166869</v>
+        <v>3.030203766134774</v>
       </c>
       <c r="J2">
-        <v>11.29127348847834</v>
+        <v>11.41857624743658</v>
       </c>
       <c r="K2">
-        <v>15.56696063383028</v>
+        <v>14.77318082135882</v>
       </c>
       <c r="L2">
-        <v>9.578897493998818</v>
+        <v>12.97783143397886</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.036847556155273</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.563702713946912</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.91640559593092</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.95369617131006</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.55096309618074</v>
+        <v>20.09234649746904</v>
       </c>
       <c r="C3">
-        <v>17.06341589178176</v>
+        <v>17.57273667902652</v>
       </c>
       <c r="D3">
-        <v>8.462581424024036</v>
+        <v>8.666889649426711</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.06910309590848</v>
+        <v>28.2403638947468</v>
       </c>
       <c r="G3">
-        <v>34.20650707687262</v>
+        <v>32.19877105495866</v>
       </c>
       <c r="H3">
-        <v>1.705069149939575</v>
+        <v>1.698407730352821</v>
       </c>
       <c r="I3">
-        <v>2.829693335087894</v>
+        <v>2.858624560511941</v>
       </c>
       <c r="J3">
-        <v>11.07802963031144</v>
+        <v>11.21386113071958</v>
       </c>
       <c r="K3">
-        <v>15.42576605968188</v>
+        <v>14.71142915971618</v>
       </c>
       <c r="L3">
-        <v>9.174660001473077</v>
+        <v>13.06001954985675</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.832062835280635</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.169987161891941</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.04672349808014</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.05076010677962</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.583469474736</v>
+        <v>19.17540578245257</v>
       </c>
       <c r="C4">
-        <v>16.27089787541301</v>
+        <v>16.72630687122741</v>
       </c>
       <c r="D4">
-        <v>8.181517624495127</v>
+        <v>8.374817588277081</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.31736626979988</v>
+        <v>27.55942685328223</v>
       </c>
       <c r="G4">
-        <v>33.19330700024341</v>
+        <v>31.31518017667923</v>
       </c>
       <c r="H4">
-        <v>1.594311964819392</v>
+        <v>1.591246081074611</v>
       </c>
       <c r="I4">
-        <v>2.705254772952846</v>
+        <v>2.750578935710547</v>
       </c>
       <c r="J4">
-        <v>10.94887318898661</v>
+        <v>11.08682392880381</v>
       </c>
       <c r="K4">
-        <v>15.34343238372928</v>
+        <v>14.6762719151819</v>
       </c>
       <c r="L4">
-        <v>8.916882297682697</v>
+        <v>13.10892318647667</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.728766748919023</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.919010421541167</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.12875193301088</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.11303158821794</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.16790136876932</v>
+        <v>18.78125659664815</v>
       </c>
       <c r="C5">
-        <v>15.9457935912225</v>
+        <v>16.37821606779495</v>
       </c>
       <c r="D5">
-        <v>8.066959777568146</v>
+        <v>8.255710107602772</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.99645859841259</v>
+        <v>27.26782402283467</v>
       </c>
       <c r="G5">
-        <v>32.75490643306301</v>
+        <v>30.93143076996908</v>
       </c>
       <c r="H5">
-        <v>1.670255058108252</v>
+        <v>1.663087748264148</v>
       </c>
       <c r="I5">
-        <v>2.654206962336478</v>
+        <v>2.706620273035111</v>
       </c>
       <c r="J5">
-        <v>10.89294635310914</v>
+        <v>11.0311425894014</v>
       </c>
       <c r="K5">
-        <v>15.30303244614141</v>
+        <v>14.65520598890101</v>
       </c>
       <c r="L5">
-        <v>8.809295617685795</v>
+        <v>13.12228559883703</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.687435698452202</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.814300628114006</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.1631479253916</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.13973857004567</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.08983296942724</v>
+        <v>18.70701721093544</v>
       </c>
       <c r="C6">
-        <v>15.90103247401765</v>
+        <v>16.32944721007451</v>
       </c>
       <c r="D6">
-        <v>8.050921159414848</v>
+        <v>8.238865650534352</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.92973135027894</v>
+        <v>27.20637779293574</v>
       </c>
       <c r="G6">
-        <v>32.6575267270136</v>
+        <v>30.84377811506521</v>
       </c>
       <c r="H6">
-        <v>1.683299393001109</v>
+        <v>1.675420568834601</v>
       </c>
       <c r="I6">
-        <v>2.646475224273587</v>
+        <v>2.70045601975626</v>
       </c>
       <c r="J6">
-        <v>10.87907873175723</v>
+        <v>11.01746651723417</v>
       </c>
       <c r="K6">
-        <v>15.28671780442071</v>
+        <v>14.64271788126979</v>
       </c>
       <c r="L6">
-        <v>8.791054491205191</v>
+        <v>13.11694903934973</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.674735731585402</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.796561873603181</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.16946374474274</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.1450406196363</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.55613097666181</v>
+        <v>19.13969954554345</v>
       </c>
       <c r="C7">
-        <v>16.29275451029902</v>
+        <v>16.73096235937688</v>
       </c>
       <c r="D7">
-        <v>8.188399975559593</v>
+        <v>8.387159754709172</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.27742184426008</v>
+        <v>27.49717740786711</v>
       </c>
       <c r="G7">
-        <v>33.12218380707867</v>
+        <v>31.33106104949308</v>
       </c>
       <c r="H7">
-        <v>1.596242092151809</v>
+        <v>1.593748795361983</v>
       </c>
       <c r="I7">
-        <v>2.706330320932069</v>
+        <v>2.751996568118628</v>
       </c>
       <c r="J7">
-        <v>10.93560299996233</v>
+        <v>11.01782682357988</v>
       </c>
       <c r="K7">
-        <v>15.31654532544817</v>
+        <v>14.64094991370258</v>
       </c>
       <c r="L7">
-        <v>8.914807515028974</v>
+        <v>13.08030572652188</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.703496696859631</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.916538217563536</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.13086444551321</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.11687794789854</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.50705457367175</v>
+        <v>20.96896389348552</v>
       </c>
       <c r="C8">
-        <v>17.90628192505228</v>
+        <v>18.41906232558608</v>
       </c>
       <c r="D8">
-        <v>8.763925088133178</v>
+        <v>8.997444305872111</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.81248408038285</v>
+        <v>28.83473603315516</v>
       </c>
       <c r="G8">
-        <v>35.18511350820188</v>
+        <v>33.31387740558915</v>
       </c>
       <c r="H8">
-        <v>1.888131433227549</v>
+        <v>1.869279785767003</v>
       </c>
       <c r="I8">
-        <v>2.961368009717313</v>
+        <v>2.972148431813287</v>
       </c>
       <c r="J8">
-        <v>11.20121900555345</v>
+        <v>11.15067979626425</v>
       </c>
       <c r="K8">
-        <v>15.4828969128965</v>
+        <v>14.68501649625571</v>
       </c>
       <c r="L8">
-        <v>9.440755537695592</v>
+        <v>12.95498387870979</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.91106499115482</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.427711921167731</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.96348712653896</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.99447552579766</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.91277585425589</v>
+        <v>24.18783815151279</v>
       </c>
       <c r="C9">
-        <v>20.71144019607192</v>
+        <v>21.40315614168793</v>
       </c>
       <c r="D9">
-        <v>9.792032060138263</v>
+        <v>10.07095211160422</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.73898191102372</v>
+        <v>31.46804730535528</v>
       </c>
       <c r="G9">
-        <v>39.12565661884663</v>
+        <v>36.82994815011851</v>
       </c>
       <c r="H9">
-        <v>2.554262633931778</v>
+        <v>2.497177253898329</v>
       </c>
       <c r="I9">
-        <v>3.435569228067793</v>
+        <v>3.382720006022705</v>
       </c>
       <c r="J9">
-        <v>11.75671644172189</v>
+        <v>11.62525639714998</v>
       </c>
       <c r="K9">
-        <v>15.89179964473521</v>
+        <v>14.87683435481797</v>
       </c>
       <c r="L9">
-        <v>10.39505668907469</v>
+        <v>12.76124931714756</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.548098712751347</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10.35721080330976</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.64759636228412</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.76707874486113</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.07576479979177</v>
+        <v>26.19051716543615</v>
       </c>
       <c r="C10">
-        <v>22.50840534140153</v>
+        <v>23.23399399711928</v>
       </c>
       <c r="D10">
-        <v>10.36051628550604</v>
+        <v>10.69347083168198</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.51196732016497</v>
+        <v>32.93173193330897</v>
       </c>
       <c r="G10">
-        <v>41.56961637185739</v>
+        <v>39.42191407494517</v>
       </c>
       <c r="H10">
-        <v>2.994889860541547</v>
+        <v>2.907978623690286</v>
       </c>
       <c r="I10">
-        <v>3.763385675237353</v>
+        <v>3.663895873008503</v>
       </c>
       <c r="J10">
-        <v>12.10870971556506</v>
+        <v>11.61393784619044</v>
       </c>
       <c r="K10">
-        <v>16.12292664543723</v>
+        <v>14.89904673810008</v>
       </c>
       <c r="L10">
-        <v>10.86738174637163</v>
+        <v>12.51771678965415</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.987957232050775</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.81053875662272</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.43857541617241</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.63975283468301</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.47585529268311</v>
+        <v>26.51165470203462</v>
       </c>
       <c r="C11">
-        <v>22.59650930410728</v>
+        <v>23.14624703606853</v>
       </c>
       <c r="D11">
-        <v>9.473067739688116</v>
+        <v>9.838050713291501</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.01145891808389</v>
+        <v>31.21982248115034</v>
       </c>
       <c r="G11">
-        <v>40.19901946858916</v>
+        <v>38.99571561130563</v>
       </c>
       <c r="H11">
-        <v>3.621620775456308</v>
+        <v>3.541370205251024</v>
       </c>
       <c r="I11">
-        <v>3.846840152309947</v>
+        <v>3.732218813673707</v>
       </c>
       <c r="J11">
-        <v>11.75929612089351</v>
+        <v>10.67957548780722</v>
       </c>
       <c r="K11">
-        <v>15.49206105634663</v>
+        <v>14.20069977690548</v>
       </c>
       <c r="L11">
-        <v>9.591276913975232</v>
+        <v>11.92804160590872</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.587442929198888</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.521994763071365</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.47075044500212</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.74883036583783</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.39773057232491</v>
+        <v>26.42399005605905</v>
       </c>
       <c r="C12">
-        <v>22.2714895098266</v>
+        <v>22.70975592232156</v>
       </c>
       <c r="D12">
-        <v>8.60609867977197</v>
+        <v>8.965453001339995</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.39427731042951</v>
+        <v>29.56087814598173</v>
       </c>
       <c r="G12">
-        <v>38.58705139741269</v>
+        <v>37.90308737393027</v>
       </c>
       <c r="H12">
-        <v>4.660954392880091</v>
+        <v>4.599212162981726</v>
       </c>
       <c r="I12">
-        <v>3.850623394717562</v>
+        <v>3.732898465342806</v>
       </c>
       <c r="J12">
-        <v>11.39995971943478</v>
+        <v>10.10193807292295</v>
       </c>
       <c r="K12">
-        <v>14.94220245914579</v>
+        <v>13.67633254399375</v>
       </c>
       <c r="L12">
-        <v>8.505465478541332</v>
+        <v>11.54075701997286</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.203245021284403</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.429521029388264</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.55348775384377</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.870385053607</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.9202851970552</v>
+        <v>26.00813634906267</v>
       </c>
       <c r="C13">
-        <v>21.62926821677262</v>
+        <v>22.02560492070567</v>
       </c>
       <c r="D13">
-        <v>7.697981656666553</v>
+        <v>8.011396835825311</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.50604580258189</v>
+        <v>27.80979316995162</v>
       </c>
       <c r="G13">
-        <v>36.56173671372218</v>
+        <v>35.93360326419587</v>
       </c>
       <c r="H13">
-        <v>5.839188438285437</v>
+        <v>5.79496711562879</v>
       </c>
       <c r="I13">
-        <v>3.795648762886255</v>
+        <v>3.686602425966733</v>
       </c>
       <c r="J13">
-        <v>10.98861424712308</v>
+        <v>9.839139824184631</v>
       </c>
       <c r="K13">
-        <v>14.37929117320826</v>
+        <v>13.2371946420529</v>
       </c>
       <c r="L13">
-        <v>7.520411149561743</v>
+        <v>11.26309754999377</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.796650304294449</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.443749712115433</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.67813149526435</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.9978338110297</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.39400546165916</v>
+        <v>25.55733841118865</v>
       </c>
       <c r="C14">
-        <v>21.03356338972981</v>
+        <v>21.42966485376704</v>
       </c>
       <c r="D14">
-        <v>7.045956026089459</v>
+        <v>7.309378702354372</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.03644288349402</v>
+        <v>26.515771045196</v>
       </c>
       <c r="G14">
-        <v>34.91780800973402</v>
+        <v>34.12699863477965</v>
       </c>
       <c r="H14">
-        <v>6.715305217592007</v>
+        <v>6.681396453383613</v>
       </c>
       <c r="I14">
-        <v>3.731710884817828</v>
+        <v>3.634243152567947</v>
       </c>
       <c r="J14">
-        <v>10.67273350914252</v>
+        <v>9.778553439270535</v>
       </c>
       <c r="K14">
-        <v>13.97426560684742</v>
+        <v>12.9604112452074</v>
       </c>
       <c r="L14">
-        <v>6.922348576035612</v>
+        <v>11.10902501731564</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.496927039368886</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.848730391122886</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.78498111238728</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.08910397593436</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.17159235805517</v>
+        <v>25.36767275262787</v>
       </c>
       <c r="C15">
-        <v>20.82579519691329</v>
+        <v>21.23416361652617</v>
       </c>
       <c r="D15">
-        <v>6.87796609810512</v>
+        <v>7.122911164696339</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.60943495322369</v>
+        <v>26.16576959038708</v>
       </c>
       <c r="G15">
-        <v>34.40638602836157</v>
+        <v>33.49043590482486</v>
       </c>
       <c r="H15">
-        <v>6.914264725067835</v>
+        <v>6.883212398418989</v>
       </c>
       <c r="I15">
-        <v>3.703959908281688</v>
+        <v>3.612288862723037</v>
       </c>
       <c r="J15">
-        <v>10.58145709986999</v>
+        <v>9.813657350977957</v>
       </c>
       <c r="K15">
-        <v>13.86553494830209</v>
+        <v>12.90093547899527</v>
       </c>
       <c r="L15">
-        <v>6.787517423961879</v>
+        <v>11.08514015877067</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.41255186522139</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.716295626509401</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.81912484124576</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.11233489257469</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.3378213670365</v>
+        <v>24.65555004774174</v>
       </c>
       <c r="C16">
-        <v>20.18135637559753</v>
+        <v>20.69065314769777</v>
       </c>
       <c r="D16">
-        <v>6.774128046451673</v>
+        <v>6.970523450505079</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.12885279325298</v>
+        <v>25.9688113847537</v>
       </c>
       <c r="G16">
-        <v>33.62138922736583</v>
+        <v>32.00497178481787</v>
       </c>
       <c r="H16">
-        <v>6.627216203022511</v>
+        <v>6.602758568811611</v>
       </c>
       <c r="I16">
-        <v>3.577733265703831</v>
+        <v>3.50981179536838</v>
       </c>
       <c r="J16">
-        <v>10.49649907854927</v>
+        <v>10.26463915742896</v>
       </c>
       <c r="K16">
-        <v>13.85947886815123</v>
+        <v>13.04003184167695</v>
       </c>
       <c r="L16">
-        <v>6.740948344061468</v>
+        <v>11.25796642889556</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.365568757488916</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.683362069147172</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.87030941323433</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.10212119356268</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.97756448468093</v>
+        <v>24.33698960678498</v>
       </c>
       <c r="C17">
-        <v>20.01132727874816</v>
+        <v>20.58046074098926</v>
       </c>
       <c r="D17">
-        <v>7.0486403370265</v>
+        <v>7.238824961892538</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.56560429779078</v>
+        <v>26.49924963920508</v>
       </c>
       <c r="G17">
-        <v>33.92595728625322</v>
+        <v>31.96766943539381</v>
       </c>
       <c r="H17">
-        <v>5.88806670765206</v>
+        <v>5.864334514702516</v>
       </c>
       <c r="I17">
-        <v>3.514486092904233</v>
+        <v>3.457961377685789</v>
       </c>
       <c r="J17">
-        <v>10.60216399562792</v>
+        <v>10.58536205884241</v>
       </c>
       <c r="K17">
-        <v>14.07031894664973</v>
+        <v>13.28243270522836</v>
       </c>
       <c r="L17">
-        <v>7.005145858929226</v>
+        <v>11.47192166000136</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.477336939003159</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.955058020071414</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.85493268031608</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.05453215118278</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.01272458282536</v>
+        <v>24.36328324074542</v>
       </c>
       <c r="C18">
-        <v>20.22417202992604</v>
+        <v>20.85100566224423</v>
       </c>
       <c r="D18">
-        <v>7.698005253702224</v>
+        <v>7.905773120251972</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.86405693637542</v>
+        <v>27.7811076500819</v>
       </c>
       <c r="G18">
-        <v>35.24619286486402</v>
+        <v>33.06163981159214</v>
       </c>
       <c r="H18">
-        <v>4.728887759157181</v>
+        <v>4.699884373087614</v>
       </c>
       <c r="I18">
-        <v>3.498181083676598</v>
+        <v>3.443335679189365</v>
       </c>
       <c r="J18">
-        <v>10.8906199827542</v>
+        <v>10.93743342383943</v>
       </c>
       <c r="K18">
-        <v>14.51023856619807</v>
+        <v>13.68059319441895</v>
       </c>
       <c r="L18">
-        <v>7.682444953013724</v>
+        <v>11.77652361077536</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.763951637857154</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.636277513935282</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.78301141132651</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.96349163777045</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.33161426246888</v>
+        <v>24.64090355246342</v>
       </c>
       <c r="C19">
-        <v>20.76620344446997</v>
+        <v>21.45441616693187</v>
       </c>
       <c r="D19">
-        <v>8.629631122829807</v>
+        <v>8.866948406631622</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.68687525566926</v>
+        <v>29.52112638318117</v>
       </c>
       <c r="G19">
-        <v>37.15778553440041</v>
+        <v>34.79474793937455</v>
       </c>
       <c r="H19">
-        <v>3.51294949639064</v>
+        <v>3.469783543120722</v>
       </c>
       <c r="I19">
-        <v>3.529494160642434</v>
+        <v>3.470891238117568</v>
       </c>
       <c r="J19">
-        <v>11.28163295105558</v>
+        <v>11.31051171155648</v>
       </c>
       <c r="K19">
-        <v>15.06109398963721</v>
+        <v>14.14617117341551</v>
       </c>
       <c r="L19">
-        <v>8.759144459195063</v>
+        <v>12.11335386952208</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.141473161344537</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.714262810943632</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.6868005586775</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.85645506457383</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.47031062887791</v>
+        <v>25.65361409707539</v>
       </c>
       <c r="C20">
-        <v>22.10679737530764</v>
+        <v>22.86773552825824</v>
       </c>
       <c r="D20">
-        <v>10.22928066083264</v>
+        <v>10.53128845695716</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.94730288510854</v>
+        <v>32.52297872676963</v>
       </c>
       <c r="G20">
-        <v>40.75690305819053</v>
+        <v>38.3228779073247</v>
       </c>
       <c r="H20">
-        <v>2.876299471454385</v>
+        <v>2.799434945999684</v>
       </c>
       <c r="I20">
-        <v>3.683117377309642</v>
+        <v>3.601422133825358</v>
       </c>
       <c r="J20">
-        <v>11.97772418268565</v>
+        <v>11.7649833759476</v>
       </c>
       <c r="K20">
-        <v>15.97894996637063</v>
+        <v>14.85253638348387</v>
       </c>
       <c r="L20">
-        <v>10.73595709197246</v>
+        <v>12.55431670223979</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.834788263729243</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.68550870454871</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.50141459862347</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.67771563353744</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.15135280354128</v>
+        <v>27.07505904338111</v>
       </c>
       <c r="C21">
-        <v>23.5415320016917</v>
+        <v>24.10854397974721</v>
       </c>
       <c r="D21">
-        <v>10.85193395544198</v>
+        <v>11.2861029440714</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.70030494561989</v>
+        <v>33.64995079316034</v>
       </c>
       <c r="G21">
-        <v>43.05366988554834</v>
+        <v>42.00112247975863</v>
       </c>
       <c r="H21">
-        <v>3.243221541857862</v>
+        <v>3.132084364414024</v>
       </c>
       <c r="I21">
-        <v>3.941721392158473</v>
+        <v>3.811504638712509</v>
       </c>
       <c r="J21">
-        <v>12.34613968602971</v>
+        <v>10.90238756736123</v>
       </c>
       <c r="K21">
-        <v>16.30827330107196</v>
+        <v>14.81025190576746</v>
       </c>
       <c r="L21">
-        <v>11.360919175931</v>
+        <v>12.32746956649987</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.13693703333266</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.28981339725933</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.32455615919088</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.5961951363126</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.19137398959999</v>
+        <v>27.94603854863599</v>
       </c>
       <c r="C22">
-        <v>24.37906502503423</v>
+        <v>24.80619837778959</v>
       </c>
       <c r="D22">
-        <v>11.17057141915017</v>
+        <v>11.69301784732044</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.72674192556145</v>
+        <v>34.25675954041741</v>
       </c>
       <c r="G22">
-        <v>44.44631631934065</v>
+        <v>44.36927349657935</v>
       </c>
       <c r="H22">
-        <v>3.467758088170107</v>
+        <v>3.334684552305923</v>
       </c>
       <c r="I22">
-        <v>4.102868787180037</v>
+        <v>3.940336520415867</v>
       </c>
       <c r="J22">
-        <v>12.57272660524144</v>
+        <v>10.28427769969393</v>
       </c>
       <c r="K22">
-        <v>16.5186278354755</v>
+        <v>14.76610587949231</v>
       </c>
       <c r="L22">
-        <v>11.66841533294984</v>
+        <v>12.16748561948829</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.32740894006502</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.5841030389671</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.2130772455467</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.55349820748917</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.65926229344858</v>
+        <v>27.52078240832832</v>
       </c>
       <c r="C23">
-        <v>23.91306070205991</v>
+        <v>24.4460726305836</v>
       </c>
       <c r="D23">
-        <v>10.99381155762825</v>
+        <v>11.45746330338437</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.2145371678455</v>
+        <v>34.01786432027178</v>
       </c>
       <c r="G23">
-        <v>43.76576424703771</v>
+        <v>42.98911003330949</v>
       </c>
       <c r="H23">
-        <v>3.349169615716199</v>
+        <v>3.228911327636756</v>
       </c>
       <c r="I23">
-        <v>4.015079966602173</v>
+        <v>3.869760870780869</v>
       </c>
       <c r="J23">
-        <v>12.46477796765879</v>
+        <v>10.74921971665412</v>
       </c>
       <c r="K23">
-        <v>16.43484339812774</v>
+        <v>14.84196789828353</v>
       </c>
       <c r="L23">
-        <v>11.50572982547384</v>
+        <v>12.28732511664093</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.26985121182038</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.42914053698811</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.26905663079744</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.5659674617672</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.5196996441383</v>
+        <v>25.6995500186182</v>
       </c>
       <c r="C24">
-        <v>22.11465292293427</v>
+        <v>22.8834548071319</v>
       </c>
       <c r="D24">
-        <v>10.31489295139199</v>
+        <v>10.6187915665125</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.18066939086133</v>
+        <v>32.75014562118797</v>
       </c>
       <c r="G24">
-        <v>41.03690003259906</v>
+        <v>38.57340328536</v>
       </c>
       <c r="H24">
-        <v>2.890576664166549</v>
+        <v>2.813263985015802</v>
       </c>
       <c r="I24">
-        <v>3.681378764297109</v>
+        <v>3.59730387358521</v>
       </c>
       <c r="J24">
-        <v>12.03765142922405</v>
+        <v>11.82927422113239</v>
       </c>
       <c r="K24">
-        <v>16.08336802495686</v>
+        <v>14.94676418737108</v>
       </c>
       <c r="L24">
-        <v>10.86990830643837</v>
+        <v>12.62320611386574</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.908867251772708</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.81958048071375</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.49009170870777</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.66201884236325</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.00679151083292</v>
+        <v>23.34249886217061</v>
       </c>
       <c r="C25">
-        <v>20.02528352525652</v>
+        <v>20.69063438937464</v>
       </c>
       <c r="D25">
-        <v>9.536707200479146</v>
+        <v>9.796413067200707</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.90701241304798</v>
+        <v>30.74649386866076</v>
       </c>
       <c r="G25">
-        <v>37.98127303075421</v>
+        <v>35.69019631279321</v>
       </c>
       <c r="H25">
-        <v>2.377314821769246</v>
+        <v>2.331470710581008</v>
       </c>
       <c r="I25">
-        <v>3.312447861387185</v>
+        <v>3.279230268478504</v>
       </c>
       <c r="J25">
-        <v>11.58389596816095</v>
+        <v>11.55391426094859</v>
       </c>
       <c r="K25">
-        <v>15.73092595110671</v>
+        <v>14.79385613189827</v>
       </c>
       <c r="L25">
-        <v>10.1445330008168</v>
+        <v>12.79465447142562</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.336037168782941</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>10.11382569692991</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.73553417872524</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.82989687336926</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
